--- a/SCH-STH/Impact assessments/Togo/tg_sch_sth_impact_3_kato_katz_202110.xlsx
+++ b/SCH-STH/Impact assessments/Togo/tg_sch_sth_impact_3_kato_katz_202110.xlsx
@@ -217,10 +217,10 @@
     <t>k_site_name</t>
   </si>
   <si>
-    <t>Select the school name</t>
-  </si>
-  <si>
-    <t>Sélectionner le nom de l'école</t>
+    <t>Select the village</t>
+  </si>
+  <si>
+    <t>Sélectionner le nom du village</t>
   </si>
   <si>
     <t>subdistrict_list = ${k_subdistrict}</t>
@@ -943,10 +943,10 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>(Octobre 2021) - 3. SCH/STH - Kato Katz v2</t>
-  </si>
-  <si>
-    <t>tg_sch_sth_impact_3_kato_katz_202110_v3</t>
+    <t>(Octobre 2021) - 3. SCH/STH - Kato Katz v4</t>
+  </si>
+  <si>
+    <t>tg_sch_sth_impact_3_kato_katz_202110_v4</t>
   </si>
   <si>
     <t>French</t>
@@ -957,10 +957,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -1019,6 +1019,52 @@
       <charset val="1"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1027,7 +1073,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1041,17 +1094,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1071,16 +1118,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1096,75 +1165,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1221,19 +1221,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1245,25 +1233,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1281,7 +1275,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1293,13 +1293,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1311,19 +1341,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1335,49 +1371,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1395,7 +1389,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1462,8 +1462,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1480,6 +1482,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1516,17 +1527,6 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1545,148 +1545,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2159,7 +2159,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A21" sqref="A21:A22"/>
+      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -6108,8 +6108,8 @@
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="1" outlineLevelCol="2"/>

--- a/SCH-STH/Impact assessments/Togo/tg_sch_sth_impact_3_kato_katz_202110.xlsx
+++ b/SCH-STH/Impact assessments/Togo/tg_sch_sth_impact_3_kato_katz_202110.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="279">
   <si>
     <t>type</t>
   </si>
@@ -238,6 +238,15 @@
     <t>Veuillez scanner le QR Code</t>
   </si>
   <si>
+    <t>regex(., '^[A-Z]{3}[0-9]{4}$') and substr(${k_district}, 0, 3) = substr(., 0, 3)</t>
+  </si>
+  <si>
+    <t>Please scan the QR code for the correct district. The first three letters of the QR code must match the first three letters of the district name. For example, TCH0001 for TCHAOUDJO.</t>
+  </si>
+  <si>
+    <t>Veuillez scanner le QR code du bon district. Les trois premières lettres du SR code doivent correspondre aux trois premières lettres du nom du district. For example, TCH0001 for TCHAOUDJO.</t>
+  </si>
+  <si>
     <t>select_one yesNo</t>
   </si>
   <si>
@@ -262,13 +271,10 @@
     <t>Saisez le code QR manuellement</t>
   </si>
   <si>
-    <t>regex(., '^[A-Z]{3}[0-9]{4}$')</t>
-  </si>
-  <si>
-    <t>Format incorrect. Ex d'un format correct: TCH0001</t>
-  </si>
-  <si>
-    <t>Incorrect format. Example of a correct format: TCH0001</t>
+    <t>Please enter the code from the QR code sticker. The format is the first three letters of the district followed by four digits. For example, TCH0001 for TCHAOUDJO</t>
+  </si>
+  <si>
+    <t>Veuillez saisir le code de l'autocollant du QR code. Le format est les trois premières lettres du district suivie de quatre chiffres. Par exemple, TCH0001 pour TCHAOUDJO</t>
   </si>
   <si>
     <t>${k_barcode_ok} = 'Non'</t>
@@ -1028,7 +1034,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1036,15 +1057,43 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1059,54 +1108,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1119,7 +1139,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1141,32 +1161,18 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1221,13 +1227,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1239,13 +1257,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1257,19 +1347,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1281,73 +1377,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1359,19 +1395,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1384,24 +1408,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1460,17 +1466,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1490,7 +1485,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1506,6 +1501,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1538,152 +1544,152 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2155,11 +2161,11 @@
   <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2341,7 +2347,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" s="21" customFormat="1" spans="1:15">
+    <row r="6" s="21" customFormat="1" ht="94.5" spans="1:15">
       <c r="A6" s="9" t="s">
         <v>35</v>
       </c>
@@ -2357,9 +2363,15 @@
       </c>
       <c r="F6" s="39"/>
       <c r="G6" s="9"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="39"/>
+      <c r="H6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="J6" s="39" t="s">
+        <v>41</v>
+      </c>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
       <c r="M6" s="9"/>
@@ -2368,17 +2380,17 @@
     </row>
     <row r="7" s="21" customFormat="1" spans="1:15">
       <c r="A7" s="9" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="C7" s="26" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D7" s="26"/>
       <c r="E7" s="39" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="F7" s="39"/>
       <c r="G7" s="9"/>
@@ -2393,33 +2405,33 @@
       <c r="N7" s="9"/>
       <c r="O7" s="9"/>
     </row>
-    <row r="8" s="21" customFormat="1" ht="31.5" spans="1:15">
+    <row r="8" s="21" customFormat="1" ht="94.5" spans="1:15">
       <c r="A8" s="9" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C8" s="26" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D8" s="26"/>
       <c r="E8" s="39" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F8" s="39"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9" t="s">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="I8" s="26" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="J8" s="39" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K8" s="9" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="L8" s="9"/>
       <c r="M8" s="9" t="s">
@@ -2430,19 +2442,19 @@
     </row>
     <row r="9" s="20" customFormat="1" spans="1:15">
       <c r="A9" s="10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B9" s="25" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D9" s="31" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="40" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F9" s="40"/>
       <c r="G9" s="41"/>
@@ -2459,19 +2471,19 @@
     </row>
     <row r="10" s="20" customFormat="1" spans="1:15">
       <c r="A10" s="10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D10" s="31" t="s">
         <v>23</v>
       </c>
       <c r="E10" s="40" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="F10" s="40"/>
       <c r="G10" s="42"/>
@@ -2488,19 +2500,19 @@
     </row>
     <row r="11" s="20" customFormat="1" ht="31.5" spans="1:15">
       <c r="A11" s="10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D11" s="31" t="s">
         <v>23</v>
       </c>
       <c r="E11" s="40" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F11" s="40"/>
       <c r="G11" s="42"/>
@@ -2517,19 +2529,19 @@
     </row>
     <row r="12" s="20" customFormat="1" ht="31.5" spans="1:15">
       <c r="A12" s="10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D12" s="31" t="s">
         <v>23</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F12" s="40"/>
       <c r="G12" s="42"/>
@@ -2546,19 +2558,19 @@
     </row>
     <row r="13" s="20" customFormat="1" spans="1:15">
       <c r="A13" s="10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D13" s="31" t="s">
         <v>23</v>
       </c>
       <c r="E13" s="40" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F13" s="40"/>
       <c r="G13" s="42"/>
@@ -2575,19 +2587,19 @@
     </row>
     <row r="14" s="20" customFormat="1" spans="1:15">
       <c r="A14" s="10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D14" s="31" t="s">
         <v>23</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F14" s="40"/>
       <c r="G14" s="42"/>
@@ -2604,19 +2616,19 @@
     </row>
     <row r="15" s="20" customFormat="1" spans="1:15">
       <c r="A15" s="10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D15" s="33" t="s">
         <v>23</v>
       </c>
       <c r="E15" s="43" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="42"/>
@@ -2633,19 +2645,19 @@
     </row>
     <row r="16" s="20" customFormat="1" spans="1:15">
       <c r="A16" s="10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D16" s="33" t="s">
         <v>23</v>
       </c>
       <c r="E16" s="43" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F16" s="13"/>
       <c r="G16" s="42"/>
@@ -2662,19 +2674,19 @@
     </row>
     <row r="17" s="22" customFormat="1" spans="1:12">
       <c r="A17" s="34" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D17" s="35" t="s">
         <v>23</v>
       </c>
       <c r="E17" s="44" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F17" s="34"/>
       <c r="G17" s="45"/>
@@ -2686,19 +2698,19 @@
     </row>
     <row r="18" s="22" customFormat="1" ht="31.5" spans="1:12">
       <c r="A18" s="34" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C18" s="35" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D18" s="35" t="s">
         <v>23</v>
       </c>
       <c r="E18" s="44" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F18" s="34"/>
       <c r="G18" s="45"/>
@@ -2710,19 +2722,19 @@
     </row>
     <row r="19" s="22" customFormat="1" ht="31.5" spans="1:12">
       <c r="A19" s="34" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D19" s="35" t="s">
         <v>23</v>
       </c>
       <c r="E19" s="44" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F19" s="34"/>
       <c r="G19" s="45"/>
@@ -2734,19 +2746,19 @@
     </row>
     <row r="20" s="22" customFormat="1" spans="1:12">
       <c r="A20" s="34" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D20" s="35" t="s">
         <v>23</v>
       </c>
       <c r="E20" s="44" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F20" s="34"/>
       <c r="G20" s="45"/>
@@ -2758,19 +2770,19 @@
     </row>
     <row r="21" s="22" customFormat="1" ht="31.5" spans="1:12">
       <c r="A21" s="34" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C21" s="35" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D21" s="35" t="s">
         <v>23</v>
       </c>
       <c r="E21" s="44" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F21" s="34"/>
       <c r="G21" s="45"/>
@@ -2782,17 +2794,17 @@
     </row>
     <row r="22" s="22" customFormat="1" ht="31.5" spans="1:12">
       <c r="A22" s="34" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D22" s="35"/>
       <c r="E22" s="44" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="F22" s="34"/>
       <c r="G22" s="45"/>
@@ -2804,19 +2816,19 @@
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D23" s="33" t="s">
         <v>23</v>
       </c>
       <c r="E23" s="43" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F23" s="13"/>
       <c r="G23" s="11"/>
@@ -2831,10 +2843,10 @@
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="10" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C24" s="33" t="s">
         <v>23</v>
@@ -2856,10 +2868,10 @@
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="32" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C25" s="33" t="s">
         <v>23</v>
@@ -2908,7 +2920,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="6" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>1</v>
@@ -2920,28 +2932,28 @@
         <v>4</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H1" s="4"/>
     </row>
     <row r="2" s="4" customFormat="1" spans="1:8">
       <c r="A2" s="8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E2" s="18"/>
       <c r="F2" s="16"/>
@@ -2950,16 +2962,16 @@
     </row>
     <row r="3" s="4" customFormat="1" spans="1:8">
       <c r="A3" s="8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E3" s="18"/>
       <c r="F3" s="16"/>
@@ -2968,16 +2980,16 @@
     </row>
     <row r="4" s="4" customFormat="1" spans="1:8">
       <c r="A4" s="8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="E4" s="18"/>
       <c r="F4" s="16"/>
@@ -2986,16 +2998,16 @@
     </row>
     <row r="5" s="4" customFormat="1" spans="1:8">
       <c r="A5" s="8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E5" s="18"/>
       <c r="F5" s="16"/>
@@ -3004,16 +3016,16 @@
     </row>
     <row r="6" s="4" customFormat="1" spans="1:8">
       <c r="A6" s="8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="16"/>
@@ -3022,16 +3034,16 @@
     </row>
     <row r="7" s="4" customFormat="1" spans="1:8">
       <c r="A7" s="8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="16"/>
@@ -3040,16 +3052,16 @@
     </row>
     <row r="8" s="4" customFormat="1" spans="1:8">
       <c r="A8" s="8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="16"/>
@@ -3058,16 +3070,16 @@
     </row>
     <row r="9" s="4" customFormat="1" spans="1:8">
       <c r="A9" s="8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="16"/>
@@ -3076,16 +3088,16 @@
     </row>
     <row r="10" s="4" customFormat="1" spans="1:8">
       <c r="A10" s="8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="16"/>
@@ -3094,16 +3106,16 @@
     </row>
     <row r="11" s="4" customFormat="1" spans="1:8">
       <c r="A11" s="8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="16"/>
@@ -3112,16 +3124,16 @@
     </row>
     <row r="12" s="4" customFormat="1" spans="1:8">
       <c r="A12" s="8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="16"/>
@@ -3130,16 +3142,16 @@
     </row>
     <row r="13" s="4" customFormat="1" spans="1:8">
       <c r="A13" s="8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E13" s="18"/>
       <c r="F13" s="16"/>
@@ -3148,16 +3160,16 @@
     </row>
     <row r="14" s="4" customFormat="1" spans="1:8">
       <c r="A14" s="8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E14" s="18"/>
       <c r="F14" s="16"/>
@@ -3166,16 +3178,16 @@
     </row>
     <row r="15" s="4" customFormat="1" spans="1:8">
       <c r="A15" s="8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E15" s="18"/>
       <c r="F15" s="16"/>
@@ -3184,16 +3196,16 @@
     </row>
     <row r="16" s="4" customFormat="1" spans="1:8">
       <c r="A16" s="8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E16" s="18"/>
       <c r="F16" s="16"/>
@@ -3202,16 +3214,16 @@
     </row>
     <row r="17" s="4" customFormat="1" spans="1:8">
       <c r="A17" s="8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E17" s="18"/>
       <c r="F17" s="16"/>
@@ -3220,16 +3232,16 @@
     </row>
     <row r="18" s="4" customFormat="1" spans="1:8">
       <c r="A18" s="8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E18" s="18"/>
       <c r="F18" s="16"/>
@@ -3238,16 +3250,16 @@
     </row>
     <row r="19" s="4" customFormat="1" spans="1:8">
       <c r="A19" s="8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E19" s="18"/>
       <c r="F19" s="16"/>
@@ -3256,16 +3268,16 @@
     </row>
     <row r="20" s="4" customFormat="1" spans="1:8">
       <c r="A20" s="8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E20" s="18"/>
       <c r="F20" s="16"/>
@@ -3274,16 +3286,16 @@
     </row>
     <row r="21" s="4" customFormat="1" spans="1:8">
       <c r="A21" s="8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E21" s="18"/>
       <c r="F21" s="16"/>
@@ -3292,16 +3304,16 @@
     </row>
     <row r="22" s="4" customFormat="1" spans="1:8">
       <c r="A22" s="8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E22" s="18"/>
       <c r="F22" s="16"/>
@@ -3310,16 +3322,16 @@
     </row>
     <row r="23" s="4" customFormat="1" spans="1:8">
       <c r="A23" s="8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E23" s="18"/>
       <c r="F23" s="16"/>
@@ -3328,16 +3340,16 @@
     </row>
     <row r="24" s="4" customFormat="1" spans="1:8">
       <c r="A24" s="8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="E24" s="18"/>
       <c r="F24" s="16"/>
@@ -3356,44 +3368,44 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="10" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="10" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="E29" s="16"/>
       <c r="F29" s="4"/>
@@ -3401,16 +3413,16 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E30" s="16"/>
       <c r="F30" s="4"/>
@@ -3418,16 +3430,16 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E31" s="16"/>
       <c r="F31" s="4"/>
@@ -3435,16 +3447,16 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E32" s="16"/>
       <c r="F32" s="4"/>
@@ -3452,16 +3464,16 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E33" s="16"/>
       <c r="F33" s="4"/>
@@ -3469,16 +3481,16 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E34" s="16"/>
       <c r="F34" s="4"/>
@@ -3486,16 +3498,16 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E35" s="16"/>
       <c r="F35" s="4"/>
@@ -3512,646 +3524,646 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E54" s="15" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E60" s="15" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D61" s="15" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E61" s="15" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D62" s="15" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D63" s="15" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D64" s="15" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E64" s="15" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E66" s="15" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E67" s="15" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="E68" s="15" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="E69" s="15" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="E70" s="15" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
@@ -4167,1920 +4179,1920 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D72" s="15" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E72" s="4"/>
       <c r="F72" s="15" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G72" s="4"/>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E73" s="4"/>
       <c r="F73" s="15" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G73" s="4"/>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E74" s="4"/>
       <c r="F74" s="15" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G74" s="4"/>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D75" s="15" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E75" s="4"/>
       <c r="F75" s="15" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G75" s="4"/>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D76" s="15" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E76" s="4"/>
       <c r="F76" s="15" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G76" s="4"/>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D77" s="15" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E77" s="4"/>
       <c r="F77" s="15" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G77" s="4"/>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D78" s="15" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E78" s="4"/>
       <c r="F78" s="15" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G78" s="4"/>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D79" s="15" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="E79" s="4"/>
       <c r="F79" s="15" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G79" s="4"/>
     </row>
     <row r="80" ht="31.5" spans="1:7">
       <c r="A80" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E80" s="4"/>
       <c r="F80" s="15" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G80" s="4"/>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D81" s="15" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="E81" s="4"/>
       <c r="F81" s="15" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G81" s="4"/>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C82" s="15" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D82" s="15" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E82" s="4"/>
       <c r="F82" s="15" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G82" s="4"/>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D83" s="15" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E83" s="4"/>
       <c r="F83" s="15" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G83" s="4"/>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C84" s="15" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D84" s="15" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E84" s="4"/>
       <c r="F84" s="15" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G84" s="4"/>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C85" s="15" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D85" s="15" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E85" s="4"/>
       <c r="F85" s="15" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G85" s="4"/>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C86" s="15" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D86" s="15" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="E86" s="4"/>
       <c r="F86" s="15" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G86" s="4"/>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C87" s="15" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="D87" s="15" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E87" s="4"/>
       <c r="F87" s="15" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G87" s="4"/>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D88" s="15" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="E88" s="4"/>
       <c r="F88" s="15" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G88" s="4"/>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C89" s="15" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D89" s="15" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="E89" s="4"/>
       <c r="F89" s="15" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G89" s="4"/>
     </row>
     <row r="90" ht="31.5" spans="1:7">
       <c r="A90" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C90" s="15" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D90" s="15" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E90" s="4"/>
       <c r="F90" s="15" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G90" s="4"/>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B91" s="15" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C91" s="15" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D91" s="15" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E91" s="4"/>
       <c r="F91" s="15" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G91" s="4"/>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B92" s="15" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C92" s="15" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D92" s="15" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E92" s="4"/>
       <c r="F92" s="15" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G92" s="4"/>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C93" s="15" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D93" s="15" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="E93" s="4"/>
       <c r="F93" s="15" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G93" s="4"/>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C94" s="15" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D94" s="15" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E94" s="4"/>
       <c r="F94" s="15" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G94" s="4"/>
     </row>
     <row r="95" ht="31.5" spans="1:7">
       <c r="A95" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C95" s="15" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D95" s="15" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E95" s="4"/>
       <c r="F95" s="15" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G95" s="4"/>
     </row>
     <row r="96" ht="31.5" spans="1:7">
       <c r="A96" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C96" s="15" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D96" s="15" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E96" s="4"/>
       <c r="F96" s="15" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G96" s="4"/>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C97" s="15" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D97" s="15" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E97" s="4"/>
       <c r="F97" s="15" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="G97" s="4"/>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C98" s="15" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D98" s="15" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E98" s="4"/>
       <c r="F98" s="15" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G98" s="4"/>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C99" s="15" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D99" s="15" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="E99" s="4"/>
       <c r="F99" s="15" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G99" s="4"/>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C100" s="15" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D100" s="15" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E100" s="4"/>
       <c r="F100" s="15" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G100" s="4"/>
     </row>
     <row r="101" ht="47.25" spans="1:7">
       <c r="A101" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C101" s="15" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="D101" s="15" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="E101" s="4"/>
       <c r="F101" s="15" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="G101" s="4"/>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B102" s="15" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C102" s="15" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D102" s="15" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E102" s="4"/>
       <c r="F102" s="15" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G102" s="4"/>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103" s="15" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C103" s="15" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D103" s="15" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="E103" s="4"/>
       <c r="F103" s="15" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G103" s="4"/>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104" s="15" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C104" s="15" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D104" s="15" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E104" s="4"/>
       <c r="F104" s="15" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G104" s="4"/>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B105" s="15" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C105" s="15" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="D105" s="15" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="E105" s="4"/>
       <c r="F105" s="15" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G105" s="4"/>
     </row>
     <row r="106" ht="31.5" spans="1:7">
       <c r="A106" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B106" s="15" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C106" s="15" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D106" s="15" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="E106" s="4"/>
       <c r="F106" s="15" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G106" s="4"/>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B107" s="15" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C107" s="15" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="D107" s="15" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E107" s="4"/>
       <c r="F107" s="15" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G107" s="4"/>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B108" s="15" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C108" s="15" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="D108" s="15" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E108" s="4"/>
       <c r="F108" s="15" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G108" s="4"/>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B109" s="15" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C109" s="15" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D109" s="15" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="E109" s="4"/>
       <c r="F109" s="15" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G109" s="4"/>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B110" s="15" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C110" s="15" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="D110" s="15" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E110" s="4"/>
       <c r="F110" s="15" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G110" s="4"/>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B111" s="15" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C111" s="15" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D111" s="15" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="E111" s="4"/>
       <c r="F111" s="15" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G111" s="4"/>
     </row>
     <row r="112" ht="31.5" spans="1:7">
       <c r="A112" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B112" s="15" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C112" s="15" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D112" s="15" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E112" s="4"/>
       <c r="F112" s="15" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G112" s="4"/>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B113" s="15" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C113" s="15" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="D113" s="15" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E113" s="4"/>
       <c r="F113" s="15" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G113" s="4"/>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B114" s="15" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C114" s="15" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D114" s="15" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E114" s="4"/>
       <c r="F114" s="15" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G114" s="4"/>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B115" s="15" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C115" s="15" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D115" s="15" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E115" s="4"/>
       <c r="F115" s="15" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G115" s="4"/>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B116" s="15" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C116" s="15" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="D116" s="15" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="E116" s="4"/>
       <c r="F116" s="15" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G116" s="4"/>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B117" s="15" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C117" s="15" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="D117" s="15" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E117" s="4"/>
       <c r="F117" s="15" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="G117" s="4"/>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C118" s="15" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D118" s="15" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="E118" s="4"/>
       <c r="F118" s="15" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G118" s="4"/>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B119" s="15" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C119" s="15" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="D119" s="15" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="E119" s="4"/>
       <c r="F119" s="15" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G119" s="4"/>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B120" s="15" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="C120" s="15" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D120" s="15" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="E120" s="4"/>
       <c r="F120" s="15" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G120" s="4"/>
     </row>
     <row r="121" ht="31.5" spans="1:7">
       <c r="A121" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B121" s="15" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C121" s="15" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="D121" s="15" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E121" s="4"/>
       <c r="F121" s="15" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G121" s="4"/>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B122" s="15" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C122" s="15" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D122" s="15" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="E122" s="4"/>
       <c r="F122" s="15" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G122" s="4"/>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B123" s="15" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C123" s="15" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D123" s="15" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E123" s="4"/>
       <c r="F123" s="15" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G123" s="4"/>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B124" s="15" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C124" s="15" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D124" s="15" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E124" s="4"/>
       <c r="F124" s="15" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G124" s="4"/>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B125" s="15" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C125" s="15" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="D125" s="15" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="E125" s="4"/>
       <c r="F125" s="15" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="G125" s="4"/>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B126" s="15" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C126" s="15" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D126" s="15" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="E126" s="4"/>
       <c r="F126" s="15" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G126" s="4"/>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B127" s="15" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C127" s="15" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="D127" s="15" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E127" s="4"/>
       <c r="F127" s="15" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G127" s="4"/>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B128" s="15" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C128" s="15" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D128" s="15" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="E128" s="4"/>
       <c r="F128" s="15" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G128" s="4"/>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B129" s="15" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C129" s="15" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D129" s="15" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="E129" s="4"/>
       <c r="F129" s="15" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G129" s="4"/>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B130" s="15" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C130" s="15" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D130" s="15" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="E130" s="4"/>
       <c r="F130" s="15" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="G130" s="4"/>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B131" s="15" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C131" s="15" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D131" s="15" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E131" s="4"/>
       <c r="F131" s="15" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G131" s="4"/>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B132" s="15" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C132" s="15" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D132" s="15" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="E132" s="4"/>
       <c r="F132" s="15" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G132" s="4"/>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B133" s="15" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C133" s="15" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D133" s="15" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="E133" s="4"/>
       <c r="F133" s="15" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="G133" s="4"/>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B134" s="15" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C134" s="15" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="D134" s="15" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E134" s="4"/>
       <c r="F134" s="15" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G134" s="4"/>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B135" s="15" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C135" s="15" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D135" s="15" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="E135" s="4"/>
       <c r="F135" s="15" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G135" s="4"/>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B136" s="15" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C136" s="15" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D136" s="15" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="E136" s="4"/>
       <c r="F136" s="15" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="G136" s="4"/>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B137" s="15" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C137" s="15" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D137" s="15" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E137" s="4"/>
       <c r="F137" s="15" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G137" s="4"/>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B138" s="15" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C138" s="15" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="D138" s="15" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E138" s="4"/>
       <c r="F138" s="15" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G138" s="4"/>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B139" s="15" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C139" s="15" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D139" s="15" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E139" s="4"/>
       <c r="F139" s="15" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="G139" s="4"/>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B140" s="15" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C140" s="15" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D140" s="15" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E140" s="4"/>
       <c r="F140" s="15" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G140" s="4"/>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B141" s="15" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C141" s="15" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D141" s="15" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="E141" s="4"/>
       <c r="F141" s="15" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="G141" s="4"/>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B142" s="15" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C142" s="15" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D142" s="15" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E142" s="4"/>
       <c r="F142" s="15" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G142" s="4"/>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B143" s="15" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C143" s="15" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D143" s="15" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E143" s="4"/>
       <c r="F143" s="15" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G143" s="4"/>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B144" s="15" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C144" s="15" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="D144" s="15" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E144" s="4"/>
       <c r="F144" s="15" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G144" s="4"/>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B145" s="15" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C145" s="15" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D145" s="15" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="E145" s="4"/>
       <c r="F145" s="15" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G145" s="4"/>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B146" s="15" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C146" s="15" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="D146" s="15" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E146" s="4"/>
       <c r="F146" s="15" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G146" s="4"/>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B147" s="15" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C147" s="15" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D147" s="15" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="E147" s="4"/>
       <c r="F147" s="15" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="G147" s="4"/>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B148" s="15" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C148" s="15" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D148" s="15" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E148" s="4"/>
       <c r="F148" s="15" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="G148" s="4"/>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B149" s="15" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C149" s="15" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D149" s="15" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E149" s="4"/>
       <c r="F149" s="15" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G149" s="4"/>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B150" s="15" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C150" s="15" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D150" s="15" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="E150" s="4"/>
       <c r="F150" s="15" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G150" s="4"/>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B151" s="15" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C151" s="15" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D151" s="15" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E151" s="4"/>
       <c r="F151" s="15" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G151" s="4"/>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B152" s="15" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C152" s="15" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D152" s="15" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E152" s="4"/>
       <c r="F152" s="15" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G152" s="4"/>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B153" s="15" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C153" s="15" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="D153" s="15" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E153" s="4"/>
       <c r="F153" s="15" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="G153" s="4"/>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B154" s="15" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C154" s="15" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D154" s="15" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="E154" s="4"/>
       <c r="F154" s="15" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G154" s="4"/>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B155" s="15" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C155" s="15" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D155" s="15" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E155" s="4"/>
       <c r="F155" s="15" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G155" s="4"/>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B156" s="15" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C156" s="15" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D156" s="15" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E156" s="4"/>
       <c r="F156" s="15" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G156" s="4"/>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B157" s="15" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C157" s="15" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D157" s="15" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E157" s="4"/>
       <c r="F157" s="15" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="G157" s="4"/>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B158" s="15" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C158" s="15" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D158" s="15" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E158" s="4"/>
       <c r="F158" s="15" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G158" s="4"/>
     </row>
     <row r="159" ht="31.5" spans="1:7">
       <c r="A159" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B159" s="15" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C159" s="15" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D159" s="15" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="E159" s="4"/>
       <c r="F159" s="15" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G159" s="4"/>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B160" s="15" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C160" s="15" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D160" s="15" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E160" s="4"/>
       <c r="F160" s="15" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G160" s="4"/>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B161" s="15" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C161" s="15" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D161" s="15" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E161" s="4"/>
       <c r="F161" s="15" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G161" s="4"/>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B162" s="15" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C162" s="15" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D162" s="15" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E162" s="4"/>
       <c r="F162" s="15" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="G162" s="4"/>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B163" s="15" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C163" s="15" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D163" s="15" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E163" s="4"/>
       <c r="F163" s="15" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G163" s="4"/>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B164" s="15" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C164" s="15" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="D164" s="15" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="E164" s="4"/>
       <c r="F164" s="15" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="G164" s="4"/>
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B165" s="15" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C165" s="15" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D165" s="15" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E165" s="4"/>
       <c r="F165" s="15" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G165" s="4"/>
     </row>
     <row r="166" ht="31.5" spans="1:7">
       <c r="A166" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B166" s="15" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C166" s="15" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D166" s="15" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E166" s="4"/>
       <c r="F166" s="15" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="G166" s="4"/>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B167" s="15" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C167" s="15" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D167" s="15" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="E167" s="4"/>
       <c r="F167" s="15" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G167" s="4"/>
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B168" s="15" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C168" s="15" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D168" s="15" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="E168" s="4"/>
       <c r="F168" s="15" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G168" s="4"/>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B169" s="15" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C169" s="15" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="D169" s="15" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E169" s="4"/>
       <c r="F169" s="15" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="G169" s="4"/>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B170" s="15" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C170" s="15" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D170" s="15" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E170" s="4"/>
       <c r="F170" s="15" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="G170" s="4"/>
     </row>
     <row r="171" spans="1:7">
       <c r="A171" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B171" s="15" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C171" s="15" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D171" s="15" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="E171" s="4"/>
       <c r="F171" s="15" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G171" s="4"/>
     </row>
     <row r="172" spans="1:7">
       <c r="A172" s="4" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B172" s="15" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C172" s="15" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D172" s="15" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E172" s="4"/>
       <c r="F172" s="15" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G172" s="4"/>
     </row>
@@ -6120,24 +6132,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>

--- a/SCH-STH/Impact assessments/Togo/tg_sch_sth_impact_3_kato_katz_202110.xlsx
+++ b/SCH-STH/Impact assessments/Togo/tg_sch_sth_impact_3_kato_katz_202110.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="276">
   <si>
     <t>type</t>
   </si>
@@ -78,24 +78,7 @@
     <t>yes</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">select_one </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>district_list</t>
-    </r>
+    <t>string</t>
   </si>
   <si>
     <t>k_district</t>
@@ -108,26 +91,6 @@
   </si>
   <si>
     <t>Sélectionner le district</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">select_one </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>subdistrict_list</t>
-    </r>
   </si>
   <si>
     <t>k_subdistrict</t>
@@ -194,26 +157,6 @@
     <t>district_list = ${k_district}</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">select_one </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <charset val="1"/>
-      </rPr>
-      <t>village_list</t>
-    </r>
-  </si>
-  <si>
     <t>k_site_name</t>
   </si>
   <si>
@@ -353,9 +296,6 @@
   </si>
   <si>
     <t>Trichocéphale trichura - Slide B</t>
-  </si>
-  <si>
-    <t>string</t>
   </si>
   <si>
     <t>k_other_name_1</t>
@@ -963,10 +903,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -1025,9 +965,9 @@
       <charset val="1"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1041,8 +981,107 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1057,97 +1096,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1160,19 +1109,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1227,7 +1167,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1239,13 +1251,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1257,55 +1311,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1317,97 +1347,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1466,17 +1406,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1486,32 +1420,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1533,6 +1441,32 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
@@ -1540,159 +1474,165 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2165,7 +2105,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2289,19 +2229,19 @@
       <c r="N3" s="9"/>
       <c r="O3" s="9"/>
     </row>
-    <row r="4" s="19" customFormat="1" ht="31.5" spans="1:15">
+    <row r="4" s="19" customFormat="1" spans="1:15">
       <c r="A4" s="28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="C4" s="26" t="s">
         <v>26</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>27</v>
       </c>
       <c r="D4" s="26"/>
       <c r="E4" s="36" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F4" s="36"/>
       <c r="G4" s="9"/>
@@ -2315,22 +2255,22 @@
       </c>
       <c r="N4" s="9"/>
       <c r="O4" s="52" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" s="19" customFormat="1" spans="1:15">
       <c r="A5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="26" t="s">
         <v>30</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>32</v>
       </c>
       <c r="D5" s="26"/>
       <c r="E5" s="36" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F5" s="36"/>
       <c r="G5" s="9"/>
@@ -2344,33 +2284,33 @@
       </c>
       <c r="N5" s="9"/>
       <c r="O5" s="52" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" s="21" customFormat="1" ht="94.5" spans="1:15">
       <c r="A6" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="26" t="s">
         <v>35</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>37</v>
       </c>
       <c r="D6" s="26"/>
       <c r="E6" s="39" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F6" s="39"/>
       <c r="G6" s="9"/>
       <c r="H6" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="39" t="s">
         <v>39</v>
-      </c>
-      <c r="I6" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" s="39" t="s">
-        <v>41</v>
       </c>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
@@ -2380,17 +2320,17 @@
     </row>
     <row r="7" s="21" customFormat="1" spans="1:15">
       <c r="A7" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="26" t="s">
         <v>42</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>44</v>
       </c>
       <c r="D7" s="26"/>
       <c r="E7" s="39" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F7" s="39"/>
       <c r="G7" s="9"/>
@@ -2407,31 +2347,31 @@
     </row>
     <row r="8" s="21" customFormat="1" ht="94.5" spans="1:15">
       <c r="A8" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="26" t="s">
         <v>46</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C8" s="26" t="s">
-        <v>48</v>
       </c>
       <c r="D8" s="26"/>
       <c r="E8" s="39" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F8" s="39"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="I8" s="26" t="s">
+        <v>48</v>
+      </c>
+      <c r="J8" s="39" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" s="9" t="s">
         <v>50</v>
-      </c>
-      <c r="J8" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="K8" s="9" t="s">
-        <v>52</v>
       </c>
       <c r="L8" s="9"/>
       <c r="M8" s="9" t="s">
@@ -2442,19 +2382,19 @@
     </row>
     <row r="9" s="20" customFormat="1" spans="1:15">
       <c r="A9" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="30" t="s">
         <v>53</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>55</v>
       </c>
       <c r="D9" s="31" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="40" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F9" s="40"/>
       <c r="G9" s="41"/>
@@ -2471,19 +2411,19 @@
     </row>
     <row r="10" s="20" customFormat="1" spans="1:15">
       <c r="A10" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D10" s="31" t="s">
         <v>23</v>
       </c>
       <c r="E10" s="40" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F10" s="40"/>
       <c r="G10" s="42"/>
@@ -2500,19 +2440,19 @@
     </row>
     <row r="11" s="20" customFormat="1" ht="31.5" spans="1:15">
       <c r="A11" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D11" s="31" t="s">
         <v>23</v>
       </c>
       <c r="E11" s="40" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F11" s="40"/>
       <c r="G11" s="42"/>
@@ -2529,19 +2469,19 @@
     </row>
     <row r="12" s="20" customFormat="1" ht="31.5" spans="1:15">
       <c r="A12" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D12" s="31" t="s">
         <v>23</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F12" s="40"/>
       <c r="G12" s="42"/>
@@ -2558,19 +2498,19 @@
     </row>
     <row r="13" s="20" customFormat="1" spans="1:15">
       <c r="A13" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D13" s="31" t="s">
         <v>23</v>
       </c>
       <c r="E13" s="40" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F13" s="40"/>
       <c r="G13" s="42"/>
@@ -2587,19 +2527,19 @@
     </row>
     <row r="14" s="20" customFormat="1" spans="1:15">
       <c r="A14" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D14" s="31" t="s">
         <v>23</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F14" s="40"/>
       <c r="G14" s="42"/>
@@ -2616,19 +2556,19 @@
     </row>
     <row r="15" s="20" customFormat="1" spans="1:15">
       <c r="A15" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C15" s="33" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D15" s="33" t="s">
         <v>23</v>
       </c>
       <c r="E15" s="43" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F15" s="13"/>
       <c r="G15" s="42"/>
@@ -2645,19 +2585,19 @@
     </row>
     <row r="16" s="20" customFormat="1" spans="1:15">
       <c r="A16" s="10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C16" s="33" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D16" s="33" t="s">
         <v>23</v>
       </c>
       <c r="E16" s="43" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F16" s="13"/>
       <c r="G16" s="42"/>
@@ -2674,19 +2614,19 @@
     </row>
     <row r="17" s="22" customFormat="1" spans="1:12">
       <c r="A17" s="34" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D17" s="35" t="s">
         <v>23</v>
       </c>
       <c r="E17" s="44" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F17" s="34"/>
       <c r="G17" s="45"/>
@@ -2698,19 +2638,19 @@
     </row>
     <row r="18" s="22" customFormat="1" ht="31.5" spans="1:12">
       <c r="A18" s="34" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B18" s="34" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C18" s="35" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D18" s="35" t="s">
         <v>23</v>
       </c>
       <c r="E18" s="44" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F18" s="34"/>
       <c r="G18" s="45"/>
@@ -2722,19 +2662,19 @@
     </row>
     <row r="19" s="22" customFormat="1" ht="31.5" spans="1:12">
       <c r="A19" s="34" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D19" s="35" t="s">
         <v>23</v>
       </c>
       <c r="E19" s="44" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F19" s="34"/>
       <c r="G19" s="45"/>
@@ -2746,19 +2686,19 @@
     </row>
     <row r="20" s="22" customFormat="1" spans="1:12">
       <c r="A20" s="34" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D20" s="35" t="s">
         <v>23</v>
       </c>
       <c r="E20" s="44" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F20" s="34"/>
       <c r="G20" s="45"/>
@@ -2770,19 +2710,19 @@
     </row>
     <row r="21" s="22" customFormat="1" ht="31.5" spans="1:12">
       <c r="A21" s="34" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="C21" s="35" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D21" s="35" t="s">
         <v>23</v>
       </c>
       <c r="E21" s="44" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F21" s="34"/>
       <c r="G21" s="45"/>
@@ -2794,17 +2734,17 @@
     </row>
     <row r="22" s="22" customFormat="1" ht="31.5" spans="1:12">
       <c r="A22" s="34" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D22" s="35"/>
       <c r="E22" s="44" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="F22" s="34"/>
       <c r="G22" s="45"/>
@@ -2816,19 +2756,19 @@
     </row>
     <row r="23" spans="1:15">
       <c r="A23" s="10" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C23" s="33" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D23" s="33" t="s">
         <v>23</v>
       </c>
       <c r="E23" s="43" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F23" s="13"/>
       <c r="G23" s="11"/>
@@ -2843,10 +2783,10 @@
     </row>
     <row r="24" spans="1:15">
       <c r="A24" s="10" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C24" s="33" t="s">
         <v>23</v>
@@ -2868,10 +2808,10 @@
     </row>
     <row r="25" spans="1:15">
       <c r="A25" s="32" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C25" s="33" t="s">
         <v>23</v>
@@ -2920,7 +2860,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="6" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>1</v>
@@ -2932,28 +2872,28 @@
         <v>4</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="H1" s="4"/>
     </row>
     <row r="2" s="4" customFormat="1" spans="1:8">
       <c r="A2" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E2" s="18"/>
       <c r="F2" s="16"/>
@@ -2962,16 +2902,16 @@
     </row>
     <row r="3" s="4" customFormat="1" spans="1:8">
       <c r="A3" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E3" s="18"/>
       <c r="F3" s="16"/>
@@ -2980,16 +2920,16 @@
     </row>
     <row r="4" s="4" customFormat="1" spans="1:8">
       <c r="A4" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="B4" s="9" t="s">
-        <v>111</v>
-      </c>
       <c r="C4" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E4" s="18"/>
       <c r="F4" s="16"/>
@@ -2998,16 +2938,16 @@
     </row>
     <row r="5" s="4" customFormat="1" spans="1:8">
       <c r="A5" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E5" s="18"/>
       <c r="F5" s="16"/>
@@ -3016,16 +2956,16 @@
     </row>
     <row r="6" s="4" customFormat="1" spans="1:8">
       <c r="A6" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="16"/>
@@ -3034,16 +2974,16 @@
     </row>
     <row r="7" s="4" customFormat="1" spans="1:8">
       <c r="A7" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="16"/>
@@ -3052,16 +2992,16 @@
     </row>
     <row r="8" s="4" customFormat="1" spans="1:8">
       <c r="A8" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="16"/>
@@ -3070,16 +3010,16 @@
     </row>
     <row r="9" s="4" customFormat="1" spans="1:8">
       <c r="A9" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="16"/>
@@ -3088,16 +3028,16 @@
     </row>
     <row r="10" s="4" customFormat="1" spans="1:8">
       <c r="A10" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="16"/>
@@ -3106,16 +3046,16 @@
     </row>
     <row r="11" s="4" customFormat="1" spans="1:8">
       <c r="A11" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="16"/>
@@ -3124,16 +3064,16 @@
     </row>
     <row r="12" s="4" customFormat="1" spans="1:8">
       <c r="A12" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="16"/>
@@ -3142,16 +3082,16 @@
     </row>
     <row r="13" s="4" customFormat="1" spans="1:8">
       <c r="A13" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E13" s="18"/>
       <c r="F13" s="16"/>
@@ -3160,16 +3100,16 @@
     </row>
     <row r="14" s="4" customFormat="1" spans="1:8">
       <c r="A14" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E14" s="18"/>
       <c r="F14" s="16"/>
@@ -3178,16 +3118,16 @@
     </row>
     <row r="15" s="4" customFormat="1" spans="1:8">
       <c r="A15" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E15" s="18"/>
       <c r="F15" s="16"/>
@@ -3196,16 +3136,16 @@
     </row>
     <row r="16" s="4" customFormat="1" spans="1:8">
       <c r="A16" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E16" s="18"/>
       <c r="F16" s="16"/>
@@ -3214,16 +3154,16 @@
     </row>
     <row r="17" s="4" customFormat="1" spans="1:8">
       <c r="A17" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E17" s="18"/>
       <c r="F17" s="16"/>
@@ -3232,16 +3172,16 @@
     </row>
     <row r="18" s="4" customFormat="1" spans="1:8">
       <c r="A18" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E18" s="18"/>
       <c r="F18" s="16"/>
@@ -3250,16 +3190,16 @@
     </row>
     <row r="19" s="4" customFormat="1" spans="1:8">
       <c r="A19" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E19" s="18"/>
       <c r="F19" s="16"/>
@@ -3268,16 +3208,16 @@
     </row>
     <row r="20" s="4" customFormat="1" spans="1:8">
       <c r="A20" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="E20" s="18"/>
       <c r="F20" s="16"/>
@@ -3286,16 +3226,16 @@
     </row>
     <row r="21" s="4" customFormat="1" spans="1:8">
       <c r="A21" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E21" s="18"/>
       <c r="F21" s="16"/>
@@ -3304,16 +3244,16 @@
     </row>
     <row r="22" s="4" customFormat="1" spans="1:8">
       <c r="A22" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E22" s="18"/>
       <c r="F22" s="16"/>
@@ -3322,16 +3262,16 @@
     </row>
     <row r="23" s="4" customFormat="1" spans="1:8">
       <c r="A23" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="E23" s="18"/>
       <c r="F23" s="16"/>
@@ -3340,16 +3280,16 @@
     </row>
     <row r="24" s="4" customFormat="1" spans="1:8">
       <c r="A24" s="8" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E24" s="18"/>
       <c r="F24" s="16"/>
@@ -3368,44 +3308,44 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="10" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="B27" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="B27" s="11" t="s">
-        <v>135</v>
-      </c>
       <c r="C27" s="12" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="14" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E29" s="16"/>
       <c r="F29" s="4"/>
@@ -3413,16 +3353,16 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="14" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E30" s="16"/>
       <c r="F30" s="4"/>
@@ -3430,16 +3370,16 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="14" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E31" s="16"/>
       <c r="F31" s="4"/>
@@ -3447,16 +3387,16 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="14" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E32" s="16"/>
       <c r="F32" s="4"/>
@@ -3464,16 +3404,16 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="14" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="E33" s="16"/>
       <c r="F33" s="4"/>
@@ -3481,16 +3421,16 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="14" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E34" s="16"/>
       <c r="F34" s="4"/>
@@ -3498,16 +3438,16 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="14" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E35" s="16"/>
       <c r="F35" s="4"/>
@@ -3524,646 +3464,646 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E54" s="15" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E60" s="15" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D61" s="15" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="E61" s="15" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D62" s="15" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D63" s="15" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D64" s="15" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E64" s="15" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E66" s="15" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E67" s="15" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E68" s="15" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E69" s="15" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="E70" s="15" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
@@ -4179,1920 +4119,1920 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D72" s="15" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="E72" s="4"/>
       <c r="F72" s="15" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G72" s="4"/>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E73" s="4"/>
       <c r="F73" s="15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G73" s="4"/>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E74" s="4"/>
       <c r="F74" s="15" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G74" s="4"/>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D75" s="15" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="E75" s="4"/>
       <c r="F75" s="15" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G75" s="4"/>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D76" s="15" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E76" s="4"/>
       <c r="F76" s="15" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G76" s="4"/>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="D77" s="15" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E77" s="4"/>
       <c r="F77" s="15" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G77" s="4"/>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D78" s="15" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E78" s="4"/>
       <c r="F78" s="15" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G78" s="4"/>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="D79" s="15" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E79" s="4"/>
       <c r="F79" s="15" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G79" s="4"/>
     </row>
     <row r="80" ht="31.5" spans="1:7">
       <c r="A80" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E80" s="4"/>
       <c r="F80" s="15" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G80" s="4"/>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D81" s="15" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E81" s="4"/>
       <c r="F81" s="15" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G81" s="4"/>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C82" s="15" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D82" s="15" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E82" s="4"/>
       <c r="F82" s="15" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G82" s="4"/>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="D83" s="15" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E83" s="4"/>
       <c r="F83" s="15" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G83" s="4"/>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C84" s="15" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D84" s="15" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="E84" s="4"/>
       <c r="F84" s="15" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G84" s="4"/>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C85" s="15" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="D85" s="15" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E85" s="4"/>
       <c r="F85" s="15" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G85" s="4"/>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C86" s="15" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="D86" s="15" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E86" s="4"/>
       <c r="F86" s="15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G86" s="4"/>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="C87" s="15" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="D87" s="15" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="E87" s="4"/>
       <c r="F87" s="15" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G87" s="4"/>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D88" s="15" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="E88" s="4"/>
       <c r="F88" s="15" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G88" s="4"/>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C89" s="15" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="D89" s="15" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E89" s="4"/>
       <c r="F89" s="15" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="G89" s="4"/>
     </row>
     <row r="90" ht="31.5" spans="1:7">
       <c r="A90" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C90" s="15" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D90" s="15" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E90" s="4"/>
       <c r="F90" s="15" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G90" s="4"/>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B91" s="15" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C91" s="15" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D91" s="15" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E91" s="4"/>
       <c r="F91" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G91" s="4"/>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B92" s="15" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C92" s="15" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D92" s="15" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E92" s="4"/>
       <c r="F92" s="15" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G92" s="4"/>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C93" s="15" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="D93" s="15" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E93" s="4"/>
       <c r="F93" s="15" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G93" s="4"/>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C94" s="15" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D94" s="15" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E94" s="4"/>
       <c r="F94" s="15" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G94" s="4"/>
     </row>
     <row r="95" ht="31.5" spans="1:7">
       <c r="A95" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C95" s="15" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D95" s="15" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E95" s="4"/>
       <c r="F95" s="15" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G95" s="4"/>
     </row>
     <row r="96" ht="31.5" spans="1:7">
       <c r="A96" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="C96" s="15" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="D96" s="15" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E96" s="4"/>
       <c r="F96" s="15" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G96" s="4"/>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C97" s="15" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D97" s="15" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E97" s="4"/>
       <c r="F97" s="15" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="G97" s="4"/>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="C98" s="15" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D98" s="15" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E98" s="4"/>
       <c r="F98" s="15" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G98" s="4"/>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C99" s="15" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="D99" s="15" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E99" s="4"/>
       <c r="F99" s="15" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G99" s="4"/>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="C100" s="15" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="D100" s="15" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="E100" s="4"/>
       <c r="F100" s="15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G100" s="4"/>
     </row>
     <row r="101" ht="47.25" spans="1:7">
       <c r="A101" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C101" s="15" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D101" s="15" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E101" s="4"/>
       <c r="F101" s="15" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G101" s="4"/>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B102" s="15" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C102" s="15" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D102" s="15" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E102" s="4"/>
       <c r="F102" s="15" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G102" s="4"/>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B103" s="15" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C103" s="15" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="D103" s="15" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E103" s="4"/>
       <c r="F103" s="15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G103" s="4"/>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B104" s="15" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C104" s="15" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="D104" s="15" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="E104" s="4"/>
       <c r="F104" s="15" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G104" s="4"/>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B105" s="15" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C105" s="15" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D105" s="15" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E105" s="4"/>
       <c r="F105" s="15" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G105" s="4"/>
     </row>
     <row r="106" ht="31.5" spans="1:7">
       <c r="A106" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B106" s="15" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C106" s="15" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="D106" s="15" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E106" s="4"/>
       <c r="F106" s="15" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G106" s="4"/>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B107" s="15" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="C107" s="15" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D107" s="15" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E107" s="4"/>
       <c r="F107" s="15" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G107" s="4"/>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B108" s="15" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C108" s="15" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D108" s="15" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="E108" s="4"/>
       <c r="F108" s="15" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G108" s="4"/>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B109" s="15" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="C109" s="15" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D109" s="15" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E109" s="4"/>
       <c r="F109" s="15" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G109" s="4"/>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B110" s="15" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C110" s="15" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="D110" s="15" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E110" s="4"/>
       <c r="F110" s="15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G110" s="4"/>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B111" s="15" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C111" s="15" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D111" s="15" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E111" s="4"/>
       <c r="F111" s="15" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G111" s="4"/>
     </row>
     <row r="112" ht="31.5" spans="1:7">
       <c r="A112" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B112" s="15" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C112" s="15" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D112" s="15" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E112" s="4"/>
       <c r="F112" s="15" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G112" s="4"/>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B113" s="15" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="C113" s="15" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="D113" s="15" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E113" s="4"/>
       <c r="F113" s="15" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G113" s="4"/>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B114" s="15" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C114" s="15" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D114" s="15" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E114" s="4"/>
       <c r="F114" s="15" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G114" s="4"/>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B115" s="15" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="C115" s="15" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D115" s="15" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E115" s="4"/>
       <c r="F115" s="15" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G115" s="4"/>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B116" s="15" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C116" s="15" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="D116" s="15" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E116" s="4"/>
       <c r="F116" s="15" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G116" s="4"/>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B117" s="15" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="C117" s="15" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D117" s="15" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E117" s="4"/>
       <c r="F117" s="15" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G117" s="4"/>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C118" s="15" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="D118" s="15" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E118" s="4"/>
       <c r="F118" s="15" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G118" s="4"/>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B119" s="15" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="C119" s="15" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D119" s="15" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E119" s="4"/>
       <c r="F119" s="15" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G119" s="4"/>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B120" s="15" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C120" s="15" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="D120" s="15" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="E120" s="4"/>
       <c r="F120" s="15" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G120" s="4"/>
     </row>
     <row r="121" ht="31.5" spans="1:7">
       <c r="A121" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B121" s="15" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="C121" s="15" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="D121" s="15" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E121" s="4"/>
       <c r="F121" s="15" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G121" s="4"/>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B122" s="15" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C122" s="15" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="D122" s="15" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E122" s="4"/>
       <c r="F122" s="15" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G122" s="4"/>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B123" s="15" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="C123" s="15" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D123" s="15" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="E123" s="4"/>
       <c r="F123" s="15" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G123" s="4"/>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B124" s="15" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C124" s="15" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D124" s="15" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E124" s="4"/>
       <c r="F124" s="15" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G124" s="4"/>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B125" s="15" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="C125" s="15" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D125" s="15" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E125" s="4"/>
       <c r="F125" s="15" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="G125" s="4"/>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B126" s="15" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C126" s="15" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D126" s="15" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E126" s="4"/>
       <c r="F126" s="15" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G126" s="4"/>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B127" s="15" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="C127" s="15" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D127" s="15" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E127" s="4"/>
       <c r="F127" s="15" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G127" s="4"/>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B128" s="15" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C128" s="15" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D128" s="15" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E128" s="4"/>
       <c r="F128" s="15" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="G128" s="4"/>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B129" s="15" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C129" s="15" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D129" s="15" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E129" s="4"/>
       <c r="F129" s="15" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="G129" s="4"/>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B130" s="15" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C130" s="15" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D130" s="15" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E130" s="4"/>
       <c r="F130" s="15" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G130" s="4"/>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B131" s="15" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C131" s="15" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="D131" s="15" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E131" s="4"/>
       <c r="F131" s="15" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G131" s="4"/>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B132" s="15" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C132" s="15" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D132" s="15" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="E132" s="4"/>
       <c r="F132" s="15" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G132" s="4"/>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B133" s="15" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C133" s="15" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D133" s="15" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E133" s="4"/>
       <c r="F133" s="15" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="G133" s="4"/>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B134" s="15" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C134" s="15" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="D134" s="15" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E134" s="4"/>
       <c r="F134" s="15" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G134" s="4"/>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B135" s="15" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C135" s="15" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="D135" s="15" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E135" s="4"/>
       <c r="F135" s="15" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G135" s="4"/>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B136" s="15" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C136" s="15" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D136" s="15" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="E136" s="4"/>
       <c r="F136" s="15" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G136" s="4"/>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B137" s="15" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C137" s="15" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="D137" s="15" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E137" s="4"/>
       <c r="F137" s="15" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G137" s="4"/>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B138" s="15" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C138" s="15" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D138" s="15" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="E138" s="4"/>
       <c r="F138" s="15" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G138" s="4"/>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B139" s="15" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C139" s="15" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D139" s="15" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E139" s="4"/>
       <c r="F139" s="15" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G139" s="4"/>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B140" s="15" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C140" s="15" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D140" s="15" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E140" s="4"/>
       <c r="F140" s="15" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G140" s="4"/>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B141" s="15" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C141" s="15" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D141" s="15" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E141" s="4"/>
       <c r="F141" s="15" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G141" s="4"/>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B142" s="15" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="C142" s="15" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D142" s="15" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E142" s="4"/>
       <c r="F142" s="15" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G142" s="4"/>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B143" s="15" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C143" s="15" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D143" s="15" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E143" s="4"/>
       <c r="F143" s="15" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G143" s="4"/>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B144" s="15" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="C144" s="15" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="D144" s="15" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E144" s="4"/>
       <c r="F144" s="15" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="G144" s="4"/>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B145" s="15" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C145" s="15" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D145" s="15" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="E145" s="4"/>
       <c r="F145" s="15" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G145" s="4"/>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B146" s="15" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C146" s="15" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="D146" s="15" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E146" s="4"/>
       <c r="F146" s="15" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G146" s="4"/>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B147" s="15" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C147" s="15" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="D147" s="15" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E147" s="4"/>
       <c r="F147" s="15" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="G147" s="4"/>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B148" s="15" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C148" s="15" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D148" s="15" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E148" s="4"/>
       <c r="F148" s="15" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G148" s="4"/>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B149" s="15" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="C149" s="15" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D149" s="15" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E149" s="4"/>
       <c r="F149" s="15" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G149" s="4"/>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B150" s="15" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C150" s="15" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D150" s="15" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="E150" s="4"/>
       <c r="F150" s="15" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G150" s="4"/>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B151" s="15" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C151" s="15" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D151" s="15" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E151" s="4"/>
       <c r="F151" s="15" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G151" s="4"/>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B152" s="15" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C152" s="15" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D152" s="15" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E152" s="4"/>
       <c r="F152" s="15" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G152" s="4"/>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B153" s="15" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C153" s="15" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D153" s="15" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E153" s="4"/>
       <c r="F153" s="15" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="G153" s="4"/>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B154" s="15" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="C154" s="15" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D154" s="15" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="E154" s="4"/>
       <c r="F154" s="15" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G154" s="4"/>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B155" s="15" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C155" s="15" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D155" s="15" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E155" s="4"/>
       <c r="F155" s="15" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G155" s="4"/>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B156" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C156" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D156" s="15" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E156" s="4"/>
       <c r="F156" s="15" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="G156" s="4"/>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B157" s="15" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C157" s="15" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D157" s="15" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E157" s="4"/>
       <c r="F157" s="15" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G157" s="4"/>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B158" s="15" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C158" s="15" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D158" s="15" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="E158" s="4"/>
       <c r="F158" s="15" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G158" s="4"/>
     </row>
     <row r="159" ht="31.5" spans="1:7">
       <c r="A159" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B159" s="15" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="C159" s="15" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D159" s="15" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E159" s="4"/>
       <c r="F159" s="15" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G159" s="4"/>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B160" s="15" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C160" s="15" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="D160" s="15" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E160" s="4"/>
       <c r="F160" s="15" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G160" s="4"/>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B161" s="15" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C161" s="15" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D161" s="15" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E161" s="4"/>
       <c r="F161" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G161" s="4"/>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B162" s="15" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C162" s="15" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="D162" s="15" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="E162" s="4"/>
       <c r="F162" s="15" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="G162" s="4"/>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B163" s="15" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C163" s="15" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D163" s="15" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E163" s="4"/>
       <c r="F163" s="15" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G163" s="4"/>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B164" s="15" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C164" s="15" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="D164" s="15" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E164" s="4"/>
       <c r="F164" s="15" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G164" s="4"/>
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B165" s="15" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C165" s="15" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="D165" s="15" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E165" s="4"/>
       <c r="F165" s="15" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="G165" s="4"/>
     </row>
     <row r="166" ht="31.5" spans="1:7">
       <c r="A166" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B166" s="15" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C166" s="15" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D166" s="15" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E166" s="4"/>
       <c r="F166" s="15" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G166" s="4"/>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B167" s="15" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C167" s="15" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="D167" s="15" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E167" s="4"/>
       <c r="F167" s="15" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G167" s="4"/>
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B168" s="15" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C168" s="15" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D168" s="15" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="E168" s="4"/>
       <c r="F168" s="15" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="G168" s="4"/>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B169" s="15" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C169" s="15" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="D169" s="15" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E169" s="4"/>
       <c r="F169" s="15" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G169" s="4"/>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B170" s="15" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C170" s="15" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D170" s="15" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E170" s="4"/>
       <c r="F170" s="15" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G170" s="4"/>
     </row>
     <row r="171" spans="1:7">
       <c r="A171" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B171" s="15" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C171" s="15" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D171" s="15" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E171" s="4"/>
       <c r="F171" s="15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G171" s="4"/>
     </row>
     <row r="172" spans="1:7">
       <c r="A172" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B172" s="15" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C172" s="15" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D172" s="15" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E172" s="4"/>
       <c r="F172" s="15" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G172" s="4"/>
     </row>
@@ -6132,24 +6072,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="B2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>

--- a/SCH-STH/Impact assessments/Togo/tg_sch_sth_impact_3_kato_katz_202110.xlsx
+++ b/SCH-STH/Impact assessments/Togo/tg_sch_sth_impact_3_kato_katz_202110.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12345" tabRatio="500"/>
+    <workbookView windowWidth="28800" windowHeight="12345" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -187,7 +187,7 @@
     <t>Please scan the QR code for the correct district. The first three letters of the QR code must match the first three letters of the district name. For example, TCH0001 for TCHAOUDJO.</t>
   </si>
   <si>
-    <t>Veuillez scanner le QR code du bon district. Les trois premières lettres du SR code doivent correspondre aux trois premières lettres du nom du district. For example, TCH0001 for TCHAOUDJO.</t>
+    <t>Veuillez scanner le QR code du bon district. Les trois premières lettres du SR code doivent correspondre aux trois premières lettres du nom du district. Par example: TCH0001 for TCHAOUDJO.</t>
   </si>
   <si>
     <t>select_one yesNo</t>
@@ -217,7 +217,7 @@
     <t>Please enter the code from the QR code sticker. The format is the first three letters of the district followed by four digits. For example, TCH0001 for TCHAOUDJO</t>
   </si>
   <si>
-    <t>Veuillez saisir le code de l'autocollant du QR code. Le format est les trois premières lettres du district suivie de quatre chiffres. Par exemple, TCH0001 pour TCHAOUDJO</t>
+    <t>Veuillez saisir le code de l'autocollant du QR code. Le format est les trois premières lettres du district suivie de quatre chiffres.  Par example: TCH0001 for TCHAOUDJO.</t>
   </si>
   <si>
     <t>${k_barcode_ok} = 'Non'</t>
@@ -889,10 +889,10 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>(Octobre 2021) - 3. SCH/STH - Kato Katz v4</t>
-  </si>
-  <si>
-    <t>tg_sch_sth_impact_3_kato_katz_202110_v4</t>
+    <t>(Octobre 2021) - 3. SCH/STH - Kato Katz v5</t>
+  </si>
+  <si>
+    <t>tg_sch_sth_impact_3_kato_katz_202110_v5</t>
   </si>
   <si>
     <t>French</t>
@@ -903,8 +903,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
@@ -965,18 +965,17 @@
       <charset val="1"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -985,6 +984,29 @@
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -997,6 +1019,29 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1004,14 +1049,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1025,22 +1079,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -1050,30 +1088,14 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1088,29 +1110,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1167,24 +1167,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1197,49 +1179,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1251,19 +1209,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1281,7 +1233,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1293,61 +1341,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1424,6 +1424,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1435,17 +1446,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1465,15 +1465,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1488,151 +1479,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2100,12 +2100,12 @@
   <sheetPr/>
   <dimension ref="A1:O25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -6060,8 +6060,8 @@
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="1" outlineLevelCol="2"/>

--- a/SCH-STH/Impact assessments/Togo/tg_sch_sth_impact_3_kato_katz_202110.xlsx
+++ b/SCH-STH/Impact assessments/Togo/tg_sch_sth_impact_3_kato_katz_202110.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12345" tabRatio="500" activeTab="2"/>
+    <workbookView windowWidth="28800" windowHeight="12345" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="286">
   <si>
     <t>type</t>
   </si>
@@ -298,7 +298,34 @@
     <t>Trichocéphale trichura - Slide B</t>
   </si>
   <si>
-    <t>k_other_name_1</t>
+    <t>k_other_exist</t>
+  </si>
+  <si>
+    <t>Are there any other parasites you want to record?</t>
+  </si>
+  <si>
+    <t>Y a-t-il d'autres parasites que vous souhaitez enregistrer ?</t>
+  </si>
+  <si>
+    <t>begin group</t>
+  </si>
+  <si>
+    <t>k_other</t>
+  </si>
+  <si>
+    <t>Other parasites</t>
+  </si>
+  <si>
+    <t>Autres parasites</t>
+  </si>
+  <si>
+    <t>field-list</t>
+  </si>
+  <si>
+    <t>${k_other_exist} = 'Oui'</t>
+  </si>
+  <si>
+    <t>name_1</t>
   </si>
   <si>
     <t>Other (name 1)</t>
@@ -307,7 +334,7 @@
     <t>Autres parasites (nom 1)</t>
   </si>
   <si>
-    <t>k_other_quantity_1_sa</t>
+    <t>quantity_1_sa</t>
   </si>
   <si>
     <t>Other (Quantity 1) - Slide A</t>
@@ -316,7 +343,7 @@
     <t>Autres parasites (Quantité 1) - Slide A</t>
   </si>
   <si>
-    <t>k_other_quantity_1_sb</t>
+    <t>quantity_1_sb</t>
   </si>
   <si>
     <t>Other (Quantity 1) - Slide B</t>
@@ -325,7 +352,7 @@
     <t>Autres parasites (Quantité 1) - Slide B</t>
   </si>
   <si>
-    <t>k_other_name_2</t>
+    <t>name_2</t>
   </si>
   <si>
     <t>Other (name 2)</t>
@@ -334,7 +361,7 @@
     <t>Autres parasites (nom 2)</t>
   </si>
   <si>
-    <t>k_other_quantity_2_sa</t>
+    <t>quantity_2_sa</t>
   </si>
   <si>
     <t>Other (Quantity 2) - Slide A</t>
@@ -343,7 +370,7 @@
     <t>Autres parasites (Quantité 2) - Slide A</t>
   </si>
   <si>
-    <t>k_other_quantity_2_sb</t>
+    <t>quantity_2_sb</t>
   </si>
   <si>
     <t>Other (Quantity 2) - Slide B</t>
@@ -352,6 +379,9 @@
     <t>Autres parasites (Quantité 2) - Slide B</t>
   </si>
   <si>
+    <t>end group</t>
+  </si>
+  <si>
     <t>k_remarks</t>
   </si>
   <si>
@@ -889,10 +919,10 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>(Octobre 2021) - 3. SCH/STH - Kato Katz v5</t>
-  </si>
-  <si>
-    <t>tg_sch_sth_impact_3_kato_katz_202110_v5</t>
+    <t>(Octobre 2021) - 3. SCH/STH - Kato Katz v5.1</t>
+  </si>
+  <si>
+    <t>tg_sch_sth_impact_3_kato_katz_202110_v5_1</t>
   </si>
   <si>
     <t>French</t>
@@ -903,10 +933,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -980,6 +1010,29 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -987,9 +1040,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1010,26 +1101,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1041,46 +1123,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1089,21 +1134,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1173,7 +1203,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1185,13 +1245,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1203,61 +1347,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1269,85 +1377,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1406,6 +1436,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1426,11 +1471,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1450,180 +1508,152 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1632,11 +1662,11 @@
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1770,6 +1800,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2098,14 +2131,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J8" sqref="J8"/>
+      <selection pane="bottomRight" activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2612,69 +2645,71 @@
       <c r="N16" s="42"/>
       <c r="O16" s="42"/>
     </row>
-    <row r="17" s="22" customFormat="1" spans="1:12">
-      <c r="A17" s="34" t="s">
+    <row r="17" s="20" customFormat="1" spans="1:13">
+      <c r="A17" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="C17" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="33"/>
+      <c r="E17" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="13"/>
+      <c r="G17" s="42"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="49"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="42"/>
+      <c r="L17" s="42"/>
+      <c r="M17" s="53"/>
+    </row>
+    <row r="18" s="20" customFormat="1" spans="1:13">
+      <c r="A18" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="33"/>
+      <c r="E18" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="F18" s="13"/>
+      <c r="G18" s="42" t="s">
+        <v>83</v>
+      </c>
+      <c r="H18" s="10"/>
+      <c r="I18" s="49"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="L18" s="42"/>
+      <c r="M18" s="53"/>
+    </row>
+    <row r="19" s="22" customFormat="1" spans="1:12">
+      <c r="A19" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="D17" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17" s="44" t="s">
-        <v>78</v>
-      </c>
-      <c r="F17" s="34"/>
-      <c r="G17" s="45"/>
-      <c r="H17" s="46"/>
-      <c r="I17" s="44"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="44"/>
-    </row>
-    <row r="18" s="22" customFormat="1" ht="31.5" spans="1:12">
-      <c r="A18" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="B18" s="34" t="s">
-        <v>79</v>
-      </c>
-      <c r="C18" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="D18" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E18" s="44" t="s">
-        <v>81</v>
-      </c>
-      <c r="F18" s="34"/>
-      <c r="G18" s="45"/>
-      <c r="H18" s="46"/>
-      <c r="I18" s="44"/>
-      <c r="J18" s="51"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="44"/>
-    </row>
-    <row r="19" s="22" customFormat="1" ht="31.5" spans="1:12">
-      <c r="A19" s="34" t="s">
-        <v>51</v>
-      </c>
       <c r="B19" s="34" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="D19" s="35" t="s">
         <v>23</v>
       </c>
       <c r="E19" s="44" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F19" s="34"/>
       <c r="G19" s="45"/>
@@ -2686,19 +2721,19 @@
     </row>
     <row r="20" s="22" customFormat="1" spans="1:12">
       <c r="A20" s="34" t="s">
-        <v>20</v>
+        <v>51</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D20" s="35" t="s">
         <v>23</v>
       </c>
       <c r="E20" s="44" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F20" s="34"/>
       <c r="G20" s="45"/>
@@ -2708,21 +2743,21 @@
       <c r="K20" s="44"/>
       <c r="L20" s="44"/>
     </row>
-    <row r="21" s="22" customFormat="1" ht="31.5" spans="1:12">
+    <row r="21" s="22" customFormat="1" spans="1:12">
       <c r="A21" s="34" t="s">
         <v>51</v>
       </c>
       <c r="B21" s="34" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C21" s="35" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="D21" s="35" t="s">
         <v>23</v>
       </c>
       <c r="E21" s="44" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F21" s="34"/>
       <c r="G21" s="45"/>
@@ -2732,19 +2767,21 @@
       <c r="K21" s="44"/>
       <c r="L21" s="44"/>
     </row>
-    <row r="22" s="22" customFormat="1" ht="31.5" spans="1:12">
+    <row r="22" s="22" customFormat="1" spans="1:12">
       <c r="A22" s="34" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="D22" s="35"/>
+        <v>95</v>
+      </c>
+      <c r="D22" s="35" t="s">
+        <v>23</v>
+      </c>
       <c r="E22" s="44" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F22" s="34"/>
       <c r="G22" s="45"/>
@@ -2754,82 +2791,144 @@
       <c r="K22" s="44"/>
       <c r="L22" s="44"/>
     </row>
-    <row r="23" spans="1:15">
-      <c r="A23" s="10" t="s">
+    <row r="23" s="22" customFormat="1" spans="1:12">
+      <c r="A23" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E23" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="F23" s="34"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="44"/>
+    </row>
+    <row r="24" s="22" customFormat="1" spans="1:12">
+      <c r="A24" s="34" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="D24" s="35"/>
+      <c r="E24" s="44" t="s">
+        <v>102</v>
+      </c>
+      <c r="F24" s="34"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="44"/>
+      <c r="J24" s="51"/>
+      <c r="K24" s="44"/>
+      <c r="L24" s="44"/>
+    </row>
+    <row r="25" s="22" customFormat="1" spans="1:12">
+      <c r="A25" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25" s="34"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="44"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="45"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="44"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="44"/>
+      <c r="L25" s="44"/>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="C23" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="D23" s="33" t="s">
+      <c r="B26" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="D26" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="E23" s="43" t="s">
-        <v>96</v>
-      </c>
-      <c r="F23" s="13"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="12"/>
-      <c r="J23" s="13"/>
-      <c r="K23" s="42"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="25"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-    </row>
-    <row r="24" spans="1:15">
-      <c r="A24" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="B24" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="C24" s="33" t="s">
+      <c r="E26" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="F26" s="13"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="32"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="42"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="25"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B27" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="C27" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="33" t="s">
+      <c r="D27" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="E24" s="43"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="12"/>
-      <c r="J24" s="13"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="25"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-    </row>
-    <row r="25" spans="1:15">
-      <c r="A25" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="B25" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="C25" s="33" t="s">
+      <c r="E27" s="43"/>
+      <c r="F27" s="13"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="32"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="42"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="25"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="B28" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="C28" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="33" t="s">
+      <c r="D28" s="33" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="43"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="13"/>
-      <c r="K25" s="42"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="25"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2860,7 +2959,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="6" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>1</v>
@@ -2872,28 +2971,28 @@
         <v>4</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="H1" s="4"/>
     </row>
     <row r="2" s="4" customFormat="1" spans="1:8">
       <c r="A2" s="8" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="E2" s="18"/>
       <c r="F2" s="16"/>
@@ -2902,16 +3001,16 @@
     </row>
     <row r="3" s="4" customFormat="1" spans="1:8">
       <c r="A3" s="8" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="E3" s="18"/>
       <c r="F3" s="16"/>
@@ -2920,16 +3019,16 @@
     </row>
     <row r="4" s="4" customFormat="1" spans="1:8">
       <c r="A4" s="8" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="E4" s="18"/>
       <c r="F4" s="16"/>
@@ -2938,16 +3037,16 @@
     </row>
     <row r="5" s="4" customFormat="1" spans="1:8">
       <c r="A5" s="8" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="E5" s="18"/>
       <c r="F5" s="16"/>
@@ -2956,16 +3055,16 @@
     </row>
     <row r="6" s="4" customFormat="1" spans="1:8">
       <c r="A6" s="8" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="16"/>
@@ -2974,16 +3073,16 @@
     </row>
     <row r="7" s="4" customFormat="1" spans="1:8">
       <c r="A7" s="8" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="16"/>
@@ -2992,16 +3091,16 @@
     </row>
     <row r="8" s="4" customFormat="1" spans="1:8">
       <c r="A8" s="8" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="16"/>
@@ -3010,16 +3109,16 @@
     </row>
     <row r="9" s="4" customFormat="1" spans="1:8">
       <c r="A9" s="8" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="16"/>
@@ -3028,16 +3127,16 @@
     </row>
     <row r="10" s="4" customFormat="1" spans="1:8">
       <c r="A10" s="8" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="16"/>
@@ -3046,16 +3145,16 @@
     </row>
     <row r="11" s="4" customFormat="1" spans="1:8">
       <c r="A11" s="8" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="16"/>
@@ -3064,16 +3163,16 @@
     </row>
     <row r="12" s="4" customFormat="1" spans="1:8">
       <c r="A12" s="8" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="16"/>
@@ -3082,16 +3181,16 @@
     </row>
     <row r="13" s="4" customFormat="1" spans="1:8">
       <c r="A13" s="8" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E13" s="18"/>
       <c r="F13" s="16"/>
@@ -3100,16 +3199,16 @@
     </row>
     <row r="14" s="4" customFormat="1" spans="1:8">
       <c r="A14" s="8" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="E14" s="18"/>
       <c r="F14" s="16"/>
@@ -3118,16 +3217,16 @@
     </row>
     <row r="15" s="4" customFormat="1" spans="1:8">
       <c r="A15" s="8" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="E15" s="18"/>
       <c r="F15" s="16"/>
@@ -3136,16 +3235,16 @@
     </row>
     <row r="16" s="4" customFormat="1" spans="1:8">
       <c r="A16" s="8" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E16" s="18"/>
       <c r="F16" s="16"/>
@@ -3154,16 +3253,16 @@
     </row>
     <row r="17" s="4" customFormat="1" spans="1:8">
       <c r="A17" s="8" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="E17" s="18"/>
       <c r="F17" s="16"/>
@@ -3172,16 +3271,16 @@
     </row>
     <row r="18" s="4" customFormat="1" spans="1:8">
       <c r="A18" s="8" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="E18" s="18"/>
       <c r="F18" s="16"/>
@@ -3190,16 +3289,16 @@
     </row>
     <row r="19" s="4" customFormat="1" spans="1:8">
       <c r="A19" s="8" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="E19" s="18"/>
       <c r="F19" s="16"/>
@@ -3208,16 +3307,16 @@
     </row>
     <row r="20" s="4" customFormat="1" spans="1:8">
       <c r="A20" s="8" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="E20" s="18"/>
       <c r="F20" s="16"/>
@@ -3226,16 +3325,16 @@
     </row>
     <row r="21" s="4" customFormat="1" spans="1:8">
       <c r="A21" s="8" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="E21" s="18"/>
       <c r="F21" s="16"/>
@@ -3244,16 +3343,16 @@
     </row>
     <row r="22" s="4" customFormat="1" spans="1:8">
       <c r="A22" s="8" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="E22" s="18"/>
       <c r="F22" s="16"/>
@@ -3262,16 +3361,16 @@
     </row>
     <row r="23" s="4" customFormat="1" spans="1:8">
       <c r="A23" s="8" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="E23" s="18"/>
       <c r="F23" s="16"/>
@@ -3280,16 +3379,16 @@
     </row>
     <row r="24" s="4" customFormat="1" spans="1:8">
       <c r="A24" s="8" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="E24" s="18"/>
       <c r="F24" s="16"/>
@@ -3308,44 +3407,44 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="10" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="10" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="14" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="E29" s="16"/>
       <c r="F29" s="4"/>
@@ -3353,16 +3452,16 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="14" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="E30" s="16"/>
       <c r="F30" s="4"/>
@@ -3370,16 +3469,16 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="14" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="E31" s="16"/>
       <c r="F31" s="4"/>
@@ -3387,16 +3486,16 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="14" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="E32" s="16"/>
       <c r="F32" s="4"/>
@@ -3404,16 +3503,16 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="14" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="E33" s="16"/>
       <c r="F33" s="4"/>
@@ -3421,16 +3520,16 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="14" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="E34" s="16"/>
       <c r="F34" s="4"/>
@@ -3438,16 +3537,16 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="14" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="E35" s="16"/>
       <c r="F35" s="4"/>
@@ -3464,646 +3563,646 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="4" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="4" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="4" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="4" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="4" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="4" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="4" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="4" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="4" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="4" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="4" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="4" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="4" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="4" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="4" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="4" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="4" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="4" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="E54" s="15" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="4" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="4" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="4" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="4" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="4" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="4" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="E60" s="15" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="4" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="D61" s="15" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="E61" s="15" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="4" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="D62" s="15" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="4" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="D63" s="15" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="4" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="D64" s="15" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="E64" s="15" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="4" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="4" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="E66" s="15" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="4" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="E67" s="15" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="4" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="E68" s="15" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="4" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="E69" s="15" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="4" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="E70" s="15" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
@@ -4119,1920 +4218,1920 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="D72" s="15" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="E72" s="4"/>
       <c r="F72" s="15" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="G72" s="4"/>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>176</v>
+        <v>186</v>
       </c>
       <c r="E73" s="4"/>
       <c r="F73" s="15" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="G73" s="4"/>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>177</v>
+        <v>187</v>
       </c>
       <c r="E74" s="4"/>
       <c r="F74" s="15" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="G74" s="4"/>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="D75" s="15" t="s">
-        <v>178</v>
+        <v>188</v>
       </c>
       <c r="E75" s="4"/>
       <c r="F75" s="15" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="G75" s="4"/>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="D76" s="15" t="s">
-        <v>179</v>
+        <v>189</v>
       </c>
       <c r="E76" s="4"/>
       <c r="F76" s="15" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="G76" s="4"/>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="D77" s="15" t="s">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="E77" s="4"/>
       <c r="F77" s="15" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="G77" s="4"/>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="D78" s="15" t="s">
-        <v>181</v>
+        <v>191</v>
       </c>
       <c r="E78" s="4"/>
       <c r="F78" s="15" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="G78" s="4"/>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="D79" s="15" t="s">
-        <v>182</v>
+        <v>192</v>
       </c>
       <c r="E79" s="4"/>
       <c r="F79" s="15" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="G79" s="4"/>
     </row>
     <row r="80" ht="31.5" spans="1:7">
       <c r="A80" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="E80" s="4"/>
       <c r="F80" s="15" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G80" s="4"/>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="D81" s="15" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="E81" s="4"/>
       <c r="F81" s="15" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="G81" s="4"/>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="C82" s="15" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="D82" s="15" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="E82" s="4"/>
       <c r="F82" s="15" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="G82" s="4"/>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="D83" s="15" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="E83" s="4"/>
       <c r="F83" s="15" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="G83" s="4"/>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="C84" s="15" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="D84" s="15" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="E84" s="4"/>
       <c r="F84" s="15" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="G84" s="4"/>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="C85" s="15" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="D85" s="15" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="E85" s="4"/>
       <c r="F85" s="15" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="G85" s="4"/>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="C86" s="15" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="D86" s="15" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="E86" s="4"/>
       <c r="F86" s="15" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="G86" s="4"/>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="C87" s="15" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="D87" s="15" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="E87" s="4"/>
       <c r="F87" s="15" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="G87" s="4"/>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="D88" s="15" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="E88" s="4"/>
       <c r="F88" s="15" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="G88" s="4"/>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="C89" s="15" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="D89" s="15" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="E89" s="4"/>
       <c r="F89" s="15" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="G89" s="4"/>
     </row>
     <row r="90" ht="31.5" spans="1:7">
       <c r="A90" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="C90" s="15" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="D90" s="15" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="E90" s="4"/>
       <c r="F90" s="15" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G90" s="4"/>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B91" s="15" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="C91" s="15" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="D91" s="15" t="s">
-        <v>192</v>
+        <v>202</v>
       </c>
       <c r="E91" s="4"/>
       <c r="F91" s="15" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="G91" s="4"/>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B92" s="15" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="C92" s="15" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="D92" s="15" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="E92" s="4"/>
       <c r="F92" s="15" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="G92" s="4"/>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="C93" s="15" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="D93" s="15" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="E93" s="4"/>
       <c r="F93" s="15" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="G93" s="4"/>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="C94" s="15" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="D94" s="15" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="E94" s="4"/>
       <c r="F94" s="15" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="G94" s="4"/>
     </row>
     <row r="95" ht="31.5" spans="1:7">
       <c r="A95" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="C95" s="15" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="D95" s="15" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="E95" s="4"/>
       <c r="F95" s="15" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="G95" s="4"/>
     </row>
     <row r="96" ht="31.5" spans="1:7">
       <c r="A96" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="C96" s="15" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="D96" s="15" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="E96" s="4"/>
       <c r="F96" s="15" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="G96" s="4"/>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="C97" s="15" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="D97" s="15" t="s">
-        <v>198</v>
+        <v>208</v>
       </c>
       <c r="E97" s="4"/>
       <c r="F97" s="15" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="G97" s="4"/>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="C98" s="15" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="D98" s="15" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="E98" s="4"/>
       <c r="F98" s="15" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="G98" s="4"/>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="C99" s="15" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="D99" s="15" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="E99" s="4"/>
       <c r="F99" s="15" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="G99" s="4"/>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="C100" s="15" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="D100" s="15" t="s">
-        <v>201</v>
+        <v>211</v>
       </c>
       <c r="E100" s="4"/>
       <c r="F100" s="15" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="G100" s="4"/>
     </row>
     <row r="101" ht="47.25" spans="1:7">
       <c r="A101" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="C101" s="15" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="D101" s="15" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="E101" s="4"/>
       <c r="F101" s="15" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="G101" s="4"/>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B102" s="15" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="C102" s="15" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="D102" s="15" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="E102" s="4"/>
       <c r="F102" s="15" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="G102" s="4"/>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B103" s="15" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="C103" s="15" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="D103" s="15" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="E103" s="4"/>
       <c r="F103" s="15" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="G103" s="4"/>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B104" s="15" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="C104" s="15" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="D104" s="15" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="E104" s="4"/>
       <c r="F104" s="15" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="G104" s="4"/>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B105" s="15" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="C105" s="15" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="D105" s="15" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="E105" s="4"/>
       <c r="F105" s="15" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="G105" s="4"/>
     </row>
     <row r="106" ht="31.5" spans="1:7">
       <c r="A106" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B106" s="15" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="C106" s="15" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="D106" s="15" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="E106" s="4"/>
       <c r="F106" s="15" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="G106" s="4"/>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B107" s="15" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="C107" s="15" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="D107" s="15" t="s">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="E107" s="4"/>
       <c r="F107" s="15" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="G107" s="4"/>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B108" s="15" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="C108" s="15" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="D108" s="15" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="E108" s="4"/>
       <c r="F108" s="15" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="G108" s="4"/>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B109" s="15" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="C109" s="15" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="D109" s="15" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="E109" s="4"/>
       <c r="F109" s="15" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="G109" s="4"/>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B110" s="15" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="C110" s="15" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="D110" s="15" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="E110" s="4"/>
       <c r="F110" s="15" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="G110" s="4"/>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B111" s="15" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="C111" s="15" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="D111" s="15" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="E111" s="4"/>
       <c r="F111" s="15" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="G111" s="4"/>
     </row>
     <row r="112" ht="31.5" spans="1:7">
       <c r="A112" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B112" s="15" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="C112" s="15" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="D112" s="15" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="E112" s="4"/>
       <c r="F112" s="15" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="G112" s="4"/>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B113" s="15" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="C113" s="15" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="D113" s="15" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="E113" s="4"/>
       <c r="F113" s="15" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="G113" s="4"/>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B114" s="15" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="C114" s="15" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="D114" s="15" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="E114" s="4"/>
       <c r="F114" s="15" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="G114" s="4"/>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B115" s="15" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="C115" s="15" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="D115" s="15" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="E115" s="4"/>
       <c r="F115" s="15" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="G115" s="4"/>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B116" s="15" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="C116" s="15" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="D116" s="15" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="E116" s="4"/>
       <c r="F116" s="15" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="G116" s="4"/>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B117" s="15" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="C117" s="15" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="D117" s="15" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="E117" s="4"/>
       <c r="F117" s="15" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="G117" s="4"/>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="C118" s="15" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="D118" s="15" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="E118" s="4"/>
       <c r="F118" s="15" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="G118" s="4"/>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B119" s="15" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="C119" s="15" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="D119" s="15" t="s">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="E119" s="4"/>
       <c r="F119" s="15" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="G119" s="4"/>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B120" s="15" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="C120" s="15" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="D120" s="15" t="s">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="E120" s="4"/>
       <c r="F120" s="15" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="G120" s="4"/>
     </row>
     <row r="121" ht="31.5" spans="1:7">
       <c r="A121" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B121" s="15" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="C121" s="15" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="D121" s="15" t="s">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="E121" s="4"/>
       <c r="F121" s="15" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="G121" s="4"/>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B122" s="15" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="C122" s="15" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="D122" s="15" t="s">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="E122" s="4"/>
       <c r="F122" s="15" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="G122" s="4"/>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B123" s="15" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="C123" s="15" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="D123" s="15" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="E123" s="4"/>
       <c r="F123" s="15" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="G123" s="4"/>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B124" s="15" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="C124" s="15" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="D124" s="15" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
       <c r="E124" s="4"/>
       <c r="F124" s="15" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="G124" s="4"/>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B125" s="15" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="C125" s="15" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="D125" s="15" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="E125" s="4"/>
       <c r="F125" s="15" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="G125" s="4"/>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B126" s="15" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="C126" s="15" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="D126" s="15" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
       <c r="E126" s="4"/>
       <c r="F126" s="15" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="G126" s="4"/>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B127" s="15" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="C127" s="15" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="D127" s="15" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
       <c r="E127" s="4"/>
       <c r="F127" s="15" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="G127" s="4"/>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B128" s="15" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="C128" s="15" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="D128" s="15" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="E128" s="4"/>
       <c r="F128" s="15" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="G128" s="4"/>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B129" s="15" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="C129" s="15" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="D129" s="15" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="E129" s="4"/>
       <c r="F129" s="15" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="G129" s="4"/>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B130" s="15" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="C130" s="15" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="D130" s="15" t="s">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="E130" s="4"/>
       <c r="F130" s="15" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="G130" s="4"/>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B131" s="15" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="C131" s="15" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="D131" s="15" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="E131" s="4"/>
       <c r="F131" s="15" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="G131" s="4"/>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B132" s="15" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="C132" s="15" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="D132" s="15" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="E132" s="4"/>
       <c r="F132" s="15" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="G132" s="4"/>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B133" s="15" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="C133" s="15" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="D133" s="15" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="E133" s="4"/>
       <c r="F133" s="15" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="G133" s="4"/>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B134" s="15" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="C134" s="15" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="D134" s="15" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="E134" s="4"/>
       <c r="F134" s="15" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="G134" s="4"/>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B135" s="15" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="C135" s="15" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="D135" s="15" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="E135" s="4"/>
       <c r="F135" s="15" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="G135" s="4"/>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B136" s="15" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="C136" s="15" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="D136" s="15" t="s">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="E136" s="4"/>
       <c r="F136" s="15" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="G136" s="4"/>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B137" s="15" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="C137" s="15" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="D137" s="15" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
       <c r="E137" s="4"/>
       <c r="F137" s="15" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="G137" s="4"/>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B138" s="15" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="C138" s="15" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="D138" s="15" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
       <c r="E138" s="4"/>
       <c r="F138" s="15" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="G138" s="4"/>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B139" s="15" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="C139" s="15" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="D139" s="15" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="E139" s="4"/>
       <c r="F139" s="15" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="G139" s="4"/>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B140" s="15" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="C140" s="15" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="D140" s="15" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="E140" s="4"/>
       <c r="F140" s="15" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="G140" s="4"/>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B141" s="15" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="C141" s="15" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="D141" s="15" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
       <c r="E141" s="4"/>
       <c r="F141" s="15" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="G141" s="4"/>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B142" s="15" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="C142" s="15" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="D142" s="15" t="s">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="E142" s="4"/>
       <c r="F142" s="15" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="G142" s="4"/>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B143" s="15" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="C143" s="15" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="D143" s="15" t="s">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="E143" s="4"/>
       <c r="F143" s="15" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="G143" s="4"/>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B144" s="15" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="C144" s="15" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="D144" s="15" t="s">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="E144" s="4"/>
       <c r="F144" s="15" t="s">
-        <v>166</v>
+        <v>176</v>
       </c>
       <c r="G144" s="4"/>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B145" s="15" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="C145" s="15" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="D145" s="15" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
       <c r="E145" s="4"/>
       <c r="F145" s="15" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="G145" s="4"/>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B146" s="15" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="C146" s="15" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="D146" s="15" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="E146" s="4"/>
       <c r="F146" s="15" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="G146" s="4"/>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B147" s="15" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="C147" s="15" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="D147" s="15" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="E147" s="4"/>
       <c r="F147" s="15" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="G147" s="4"/>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B148" s="15" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="C148" s="15" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="D148" s="15" t="s">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="E148" s="4"/>
       <c r="F148" s="15" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="G148" s="4"/>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B149" s="15" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="C149" s="15" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="D149" s="15" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="E149" s="4"/>
       <c r="F149" s="15" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="G149" s="4"/>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B150" s="15" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="C150" s="15" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="D150" s="15" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="E150" s="4"/>
       <c r="F150" s="15" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="G150" s="4"/>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B151" s="15" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="C151" s="15" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="D151" s="15" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
       <c r="E151" s="4"/>
       <c r="F151" s="15" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="G151" s="4"/>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B152" s="15" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="C152" s="15" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="D152" s="15" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="E152" s="4"/>
       <c r="F152" s="15" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="G152" s="4"/>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B153" s="15" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="C153" s="15" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="D153" s="15" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="E153" s="4"/>
       <c r="F153" s="15" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="G153" s="4"/>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B154" s="15" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="C154" s="15" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="D154" s="15" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="E154" s="4"/>
       <c r="F154" s="15" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="G154" s="4"/>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B155" s="15" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="C155" s="15" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="D155" s="15" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="E155" s="4"/>
       <c r="F155" s="15" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="G155" s="4"/>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B156" s="15" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="C156" s="15" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="D156" s="15" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="E156" s="4"/>
       <c r="F156" s="15" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="G156" s="4"/>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B157" s="15" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="C157" s="15" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="D157" s="15" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="E157" s="4"/>
       <c r="F157" s="15" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="G157" s="4"/>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B158" s="15" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="C158" s="15" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="D158" s="15" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="E158" s="4"/>
       <c r="F158" s="15" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="G158" s="4"/>
     </row>
     <row r="159" ht="31.5" spans="1:7">
       <c r="A159" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B159" s="15" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="C159" s="15" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="D159" s="15" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="E159" s="4"/>
       <c r="F159" s="15" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
       <c r="G159" s="4"/>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B160" s="15" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="C160" s="15" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="D160" s="15" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="E160" s="4"/>
       <c r="F160" s="15" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="G160" s="4"/>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B161" s="15" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="C161" s="15" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="D161" s="15" t="s">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="E161" s="4"/>
       <c r="F161" s="15" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="G161" s="4"/>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B162" s="15" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="C162" s="15" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="D162" s="15" t="s">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="E162" s="4"/>
       <c r="F162" s="15" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="G162" s="4"/>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B163" s="15" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="C163" s="15" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="D163" s="15" t="s">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="E163" s="4"/>
       <c r="F163" s="15" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="G163" s="4"/>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B164" s="15" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="C164" s="15" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="D164" s="15" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="E164" s="4"/>
       <c r="F164" s="15" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="G164" s="4"/>
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B165" s="15" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="C165" s="15" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="D165" s="15" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
       <c r="E165" s="4"/>
       <c r="F165" s="15" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="G165" s="4"/>
     </row>
     <row r="166" ht="31.5" spans="1:7">
       <c r="A166" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B166" s="15" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="C166" s="15" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="D166" s="15" t="s">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="E166" s="4"/>
       <c r="F166" s="15" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="G166" s="4"/>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B167" s="15" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="C167" s="15" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="D167" s="15" t="s">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="E167" s="4"/>
       <c r="F167" s="15" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="G167" s="4"/>
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B168" s="15" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="C168" s="15" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="D168" s="15" t="s">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="E168" s="4"/>
       <c r="F168" s="15" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="G168" s="4"/>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B169" s="15" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="C169" s="15" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="D169" s="15" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="E169" s="4"/>
       <c r="F169" s="15" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="G169" s="4"/>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B170" s="15" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="C170" s="15" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="D170" s="15" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="E170" s="4"/>
       <c r="F170" s="15" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="G170" s="4"/>
     </row>
     <row r="171" spans="1:7">
       <c r="A171" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B171" s="15" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="C171" s="15" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="D171" s="15" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="E171" s="4"/>
       <c r="F171" s="15" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="G171" s="4"/>
     </row>
     <row r="172" spans="1:7">
       <c r="A172" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B172" s="15" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="C172" s="15" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="D172" s="15" t="s">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="E172" s="4"/>
       <c r="F172" s="15" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="G172" s="4"/>
     </row>
@@ -6060,8 +6159,8 @@
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -6072,24 +6171,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>272</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="B2" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="C2" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>

--- a/SCH-STH/Impact assessments/Togo/tg_sch_sth_impact_3_kato_katz_202110.xlsx
+++ b/SCH-STH/Impact assessments/Togo/tg_sch_sth_impact_3_kato_katz_202110.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12345" tabRatio="500"/>
+    <workbookView windowWidth="28800" windowHeight="12345" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -433,18 +433,12 @@
     <t>AGOSSOU A. Adolphe  </t>
   </si>
   <si>
-    <t>AKPANLI Komivi  </t>
-  </si>
-  <si>
     <t>AMADOU Moussa </t>
   </si>
   <si>
     <t>ANAGO Espoir  </t>
   </si>
   <si>
-    <t>BADAKI Abalo Charles </t>
-  </si>
-  <si>
     <t>FONVI Akakpo </t>
   </si>
   <si>
@@ -454,6 +448,9 @@
     <t>GNAMEY Judith </t>
   </si>
   <si>
+    <t>HOUNYOVI Ayaovi</t>
+  </si>
+  <si>
     <t>KAMASSA Hélène </t>
   </si>
   <si>
@@ -472,7 +469,10 @@
     <t>NAKOME Bamouni  </t>
   </si>
   <si>
-    <t>PABAKA Kokou  </t>
+    <t>NOUSSOUGNON Kokou</t>
+  </si>
+  <si>
+    <t>SOH Atafembou</t>
   </si>
   <si>
     <t>SOSSOU Efoe Stephane </t>
@@ -933,10 +933,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -995,10 +995,11 @@
       <charset val="1"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1009,16 +1010,60 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1033,76 +1078,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1117,9 +1094,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1131,16 +1116,31 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1203,19 +1203,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1227,7 +1245,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1239,31 +1263,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1281,13 +1317,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1305,13 +1347,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1323,61 +1371,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1436,6 +1436,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1460,39 +1475,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1510,6 +1492,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1521,148 +1521,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2133,7 +2133,7 @@
   <sheetPr/>
   <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
@@ -2942,10 +2942,10 @@
   <sheetPr/>
   <dimension ref="A1:H173"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A25" sqref="$A25:$XFD25"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelCol="7"/>

--- a/SCH-STH/Impact assessments/Togo/tg_sch_sth_impact_3_kato_katz_202110.xlsx
+++ b/SCH-STH/Impact assessments/Togo/tg_sch_sth_impact_3_kato_katz_202110.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12345" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12345" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="262">
   <si>
     <t>type</t>
   </si>
@@ -298,88 +298,16 @@
     <t>Trichocéphale trichura - Slide B</t>
   </si>
   <si>
-    <t>k_other_exist</t>
-  </si>
-  <si>
-    <t>Are there any other parasites you want to record?</t>
-  </si>
-  <si>
-    <t>Y a-t-il d'autres parasites que vous souhaitez enregistrer ?</t>
-  </si>
-  <si>
-    <t>begin group</t>
-  </si>
-  <si>
-    <t>k_other</t>
-  </si>
-  <si>
-    <t>Other parasites</t>
-  </si>
-  <si>
-    <t>Autres parasites</t>
-  </si>
-  <si>
-    <t>field-list</t>
-  </si>
-  <si>
-    <t>${k_other_exist} = 'Oui'</t>
-  </si>
-  <si>
-    <t>name_1</t>
-  </si>
-  <si>
-    <t>Other (name 1)</t>
-  </si>
-  <si>
-    <t>Autres parasites (nom 1)</t>
-  </si>
-  <si>
-    <t>quantity_1_sa</t>
-  </si>
-  <si>
-    <t>Other (Quantity 1) - Slide A</t>
-  </si>
-  <si>
-    <t>Autres parasites (Quantité 1) - Slide A</t>
-  </si>
-  <si>
-    <t>quantity_1_sb</t>
-  </si>
-  <si>
-    <t>Other (Quantity 1) - Slide B</t>
-  </si>
-  <si>
-    <t>Autres parasites (Quantité 1) - Slide B</t>
-  </si>
-  <si>
-    <t>name_2</t>
-  </si>
-  <si>
-    <t>Other (name 2)</t>
-  </si>
-  <si>
-    <t>Autres parasites (nom 2)</t>
-  </si>
-  <si>
-    <t>quantity_2_sa</t>
-  </si>
-  <si>
-    <t>Other (Quantity 2) - Slide A</t>
-  </si>
-  <si>
-    <t>Autres parasites (Quantité 2) - Slide A</t>
-  </si>
-  <si>
-    <t>quantity_2_sb</t>
-  </si>
-  <si>
-    <t>Other (Quantity 2) - Slide B</t>
-  </si>
-  <si>
-    <t>Autres parasites (Quantité 2) - Slide B</t>
-  </si>
-  <si>
-    <t>end group</t>
+    <t>k_sch_hae_sa</t>
+  </si>
+  <si>
+    <t>Schistosoma haematobium – Slide A</t>
+  </si>
+  <si>
+    <t>k_sch_hae_sb</t>
+  </si>
+  <si>
+    <t>Schistosoma haematobium – Slide B</t>
   </si>
   <si>
     <t>k_remarks</t>
@@ -919,10 +847,10 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>(Octobre 2021) - 3. SCH/STH - Kato Katz v5.1</t>
-  </si>
-  <si>
-    <t>tg_sch_sth_impact_3_kato_katz_202110_v5_1</t>
+    <t>(Octobre 2021) - 3. SCH/STH - Kato Katz v6</t>
+  </si>
+  <si>
+    <t>tg_sch_sth_impact_3_kato_katz_202110_v6</t>
   </si>
   <si>
     <t>French</t>
@@ -933,10 +861,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -995,11 +923,10 @@
       <charset val="1"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1013,12 +940,21 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1032,10 +968,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1048,9 +993,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1058,22 +1003,6 @@
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1092,37 +1021,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -1138,9 +1060,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1203,7 +1131,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1215,37 +1179,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1257,7 +1209,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1269,103 +1239,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1378,6 +1252,60 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1436,36 +1364,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1492,9 +1390,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1508,165 +1423,178 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1715,7 +1643,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1749,12 +1676,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1779,11 +1700,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1795,9 +1711,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2131,26 +2044,26 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O28"/>
+  <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A25" sqref="A25"/>
+      <selection pane="bottomRight" activeCell="A18" sqref="$A18:$XFD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="19.6066666666667" style="23" customWidth="1"/>
-    <col min="2" max="2" width="14.5" style="23" customWidth="1"/>
-    <col min="3" max="3" width="42.6066666666667" style="23" customWidth="1"/>
-    <col min="4" max="4" width="41.22" style="23" customWidth="1"/>
-    <col min="5" max="5" width="47.5" style="23" customWidth="1"/>
+    <col min="1" max="1" width="19.6066666666667" style="22" customWidth="1"/>
+    <col min="2" max="2" width="14.5" style="22" customWidth="1"/>
+    <col min="3" max="3" width="42.6066666666667" style="22" customWidth="1"/>
+    <col min="4" max="4" width="41.22" style="22" customWidth="1"/>
+    <col min="5" max="5" width="47.5" style="22" customWidth="1"/>
     <col min="6" max="6" width="47.3866666666667" customWidth="1"/>
     <col min="7" max="7" width="12.6066666666667" customWidth="1"/>
-    <col min="8" max="8" width="16.8866666666667" style="23" customWidth="1"/>
+    <col min="8" max="8" width="16.8866666666667" style="22" customWidth="1"/>
     <col min="9" max="10" width="29.5" customWidth="1"/>
     <col min="11" max="11" width="22" customWidth="1"/>
     <col min="12" max="12" width="12.6066666666667" customWidth="1"/>
@@ -2160,49 +2073,49 @@
   </cols>
   <sheetData>
     <row r="1" s="20" customFormat="1" ht="36" spans="1:15">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="24" t="s">
+      <c r="H1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="24" t="s">
+      <c r="I1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="24" t="s">
+      <c r="J1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="24" t="s">
+      <c r="K1" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="24" t="s">
+      <c r="L1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="24" t="s">
+      <c r="M1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="24" t="s">
+      <c r="N1" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="24" t="s">
+      <c r="O1" s="23" t="s">
         <v>14</v>
       </c>
     </row>
@@ -2210,50 +2123,50 @@
       <c r="A2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="36" t="s">
+      <c r="D2" s="25"/>
+      <c r="E2" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="F2" s="37"/>
-      <c r="G2" s="25"/>
-      <c r="H2" s="25"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="25"/>
-      <c r="L2" s="25"/>
-      <c r="M2" s="25" t="s">
+      <c r="F2" s="34"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="25"/>
-      <c r="O2" s="25"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
     </row>
     <row r="3" s="19" customFormat="1" spans="1:15">
       <c r="A3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="26" t="s">
+      <c r="D3" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="36" t="s">
+      <c r="E3" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="36"/>
+      <c r="F3" s="33"/>
       <c r="G3" s="9"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="36"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="33"/>
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
       <c r="M3" s="9" t="s">
@@ -2263,31 +2176,31 @@
       <c r="O3" s="9"/>
     </row>
     <row r="4" s="19" customFormat="1" spans="1:15">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="25" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="36" t="s">
+      <c r="D4" s="25"/>
+      <c r="E4" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="F4" s="36"/>
+      <c r="F4" s="33"/>
       <c r="G4" s="9"/>
       <c r="H4" s="9"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="36"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="33"/>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
       <c r="M4" s="9" t="s">
         <v>19</v>
       </c>
       <c r="N4" s="9"/>
-      <c r="O4" s="52" t="s">
+      <c r="O4" s="45" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2295,28 +2208,28 @@
       <c r="A5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="25" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="26"/>
-      <c r="E5" s="36" t="s">
+      <c r="D5" s="25"/>
+      <c r="E5" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="36"/>
+      <c r="F5" s="33"/>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
-      <c r="I5" s="26"/>
-      <c r="J5" s="36"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="33"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
       <c r="M5" s="9" t="s">
         <v>19</v>
       </c>
       <c r="N5" s="9"/>
-      <c r="O5" s="52" t="s">
+      <c r="O5" s="45" t="s">
         <v>32</v>
       </c>
     </row>
@@ -2327,22 +2240,22 @@
       <c r="B6" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="26"/>
-      <c r="E6" s="39" t="s">
+      <c r="D6" s="25"/>
+      <c r="E6" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="39"/>
+      <c r="F6" s="36"/>
       <c r="G6" s="9"/>
       <c r="H6" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="26" t="s">
+      <c r="I6" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="39" t="s">
+      <c r="J6" s="36" t="s">
         <v>39</v>
       </c>
       <c r="K6" s="9"/>
@@ -2358,18 +2271,18 @@
       <c r="B7" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="D7" s="26"/>
-      <c r="E7" s="39" t="s">
+      <c r="D7" s="25"/>
+      <c r="E7" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="F7" s="39"/>
+      <c r="F7" s="36"/>
       <c r="G7" s="9"/>
       <c r="H7" s="8"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="39"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="36"/>
       <c r="K7" s="9"/>
       <c r="L7" s="9"/>
       <c r="M7" s="9" t="s">
@@ -2385,22 +2298,22 @@
       <c r="B8" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="D8" s="26"/>
-      <c r="E8" s="39" t="s">
+      <c r="D8" s="25"/>
+      <c r="E8" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="F8" s="39"/>
+      <c r="F8" s="36"/>
       <c r="G8" s="9"/>
       <c r="H8" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="I8" s="26" t="s">
+      <c r="I8" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="J8" s="39" t="s">
+      <c r="J8" s="36" t="s">
         <v>49</v>
       </c>
       <c r="K8" s="9" t="s">
@@ -2417,30 +2330,30 @@
       <c r="A9" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="31" t="s">
+      <c r="D9" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="40" t="s">
+      <c r="E9" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="40"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="47"/>
-      <c r="J9" s="48"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="25" t="s">
+      <c r="F9" s="37"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="42"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="N9" s="41"/>
-      <c r="O9" s="41"/>
+      <c r="N9" s="38"/>
+      <c r="O9" s="38"/>
     </row>
     <row r="10" s="20" customFormat="1" spans="1:15">
       <c r="A10" s="10" t="s">
@@ -2449,27 +2362,27 @@
       <c r="B10" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="30" t="s">
         <v>56</v>
       </c>
-      <c r="D10" s="31" t="s">
+      <c r="D10" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="40" t="s">
+      <c r="E10" s="37" t="s">
         <v>57</v>
       </c>
-      <c r="F10" s="40"/>
-      <c r="G10" s="42"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="39"/>
       <c r="H10" s="10"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="42"/>
-      <c r="M10" s="25" t="s">
+      <c r="I10" s="43"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="39"/>
+      <c r="L10" s="39"/>
+      <c r="M10" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="N10" s="42"/>
-      <c r="O10" s="42"/>
+      <c r="N10" s="39"/>
+      <c r="O10" s="39"/>
     </row>
     <row r="11" s="20" customFormat="1" ht="31.5" spans="1:15">
       <c r="A11" s="10" t="s">
@@ -2478,27 +2391,27 @@
       <c r="B11" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="31" t="s">
+      <c r="D11" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="40" t="s">
+      <c r="E11" s="37" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="40"/>
-      <c r="G11" s="42"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="39"/>
       <c r="H11" s="10"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="42"/>
-      <c r="M11" s="25" t="s">
+      <c r="I11" s="43"/>
+      <c r="J11" s="44"/>
+      <c r="K11" s="39"/>
+      <c r="L11" s="39"/>
+      <c r="M11" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="N11" s="42"/>
-      <c r="O11" s="42"/>
+      <c r="N11" s="39"/>
+      <c r="O11" s="39"/>
     </row>
     <row r="12" s="20" customFormat="1" ht="31.5" spans="1:15">
       <c r="A12" s="10" t="s">
@@ -2507,27 +2420,27 @@
       <c r="B12" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="D12" s="31" t="s">
+      <c r="D12" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="E12" s="40" t="s">
+      <c r="E12" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="F12" s="40"/>
-      <c r="G12" s="42"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="39"/>
       <c r="H12" s="10"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="50"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="42"/>
-      <c r="M12" s="25" t="s">
+      <c r="I12" s="43"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="39"/>
+      <c r="L12" s="39"/>
+      <c r="M12" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="N12" s="42"/>
-      <c r="O12" s="42"/>
+      <c r="N12" s="39"/>
+      <c r="O12" s="39"/>
     </row>
     <row r="13" s="20" customFormat="1" spans="1:15">
       <c r="A13" s="10" t="s">
@@ -2536,27 +2449,27 @@
       <c r="B13" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="D13" s="31" t="s">
+      <c r="D13" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="40" t="s">
+      <c r="E13" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="F13" s="40"/>
-      <c r="G13" s="42"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="39"/>
       <c r="H13" s="10"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="50"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="42"/>
-      <c r="M13" s="25" t="s">
+      <c r="I13" s="43"/>
+      <c r="J13" s="44"/>
+      <c r="K13" s="39"/>
+      <c r="L13" s="39"/>
+      <c r="M13" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="N13" s="42"/>
-      <c r="O13" s="42"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
     </row>
     <row r="14" s="20" customFormat="1" spans="1:15">
       <c r="A14" s="10" t="s">
@@ -2565,370 +2478,208 @@
       <c r="B14" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="40" t="s">
+      <c r="E14" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="F14" s="40"/>
-      <c r="G14" s="42"/>
+      <c r="F14" s="37"/>
+      <c r="G14" s="39"/>
       <c r="H14" s="10"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="50"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42"/>
-      <c r="M14" s="25" t="s">
+      <c r="I14" s="43"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="39"/>
+      <c r="L14" s="39"/>
+      <c r="M14" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="N14" s="42"/>
-      <c r="O14" s="42"/>
+      <c r="N14" s="39"/>
+      <c r="O14" s="39"/>
     </row>
     <row r="15" s="20" customFormat="1" spans="1:15">
       <c r="A15" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C15" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="D15" s="33" t="s">
+      <c r="D15" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="E15" s="43" t="s">
+      <c r="E15" s="40" t="s">
         <v>72</v>
       </c>
       <c r="F15" s="13"/>
-      <c r="G15" s="42"/>
+      <c r="G15" s="39"/>
       <c r="H15" s="10"/>
-      <c r="I15" s="49"/>
-      <c r="J15" s="50"/>
-      <c r="K15" s="42"/>
-      <c r="L15" s="42"/>
-      <c r="M15" s="25" t="s">
+      <c r="I15" s="43"/>
+      <c r="J15" s="44"/>
+      <c r="K15" s="39"/>
+      <c r="L15" s="39"/>
+      <c r="M15" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="N15" s="42"/>
-      <c r="O15" s="42"/>
+      <c r="N15" s="39"/>
+      <c r="O15" s="39"/>
     </row>
     <row r="16" s="20" customFormat="1" spans="1:15">
       <c r="A16" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="C16" s="33" t="s">
+      <c r="C16" s="32" t="s">
         <v>74</v>
       </c>
-      <c r="D16" s="33" t="s">
+      <c r="D16" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="E16" s="43" t="s">
+      <c r="E16" s="40" t="s">
         <v>75</v>
       </c>
       <c r="F16" s="13"/>
-      <c r="G16" s="42"/>
+      <c r="G16" s="39"/>
       <c r="H16" s="10"/>
-      <c r="I16" s="49"/>
-      <c r="J16" s="50"/>
-      <c r="K16" s="42"/>
-      <c r="L16" s="42"/>
-      <c r="M16" s="25" t="s">
+      <c r="I16" s="43"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="39"/>
+      <c r="L16" s="39"/>
+      <c r="M16" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="N16" s="42"/>
-      <c r="O16" s="42"/>
+      <c r="N16" s="39"/>
+      <c r="O16" s="39"/>
     </row>
     <row r="17" s="20" customFormat="1" spans="1:13">
       <c r="A17" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="C17" s="33" t="s">
+      <c r="C17" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="D17" s="33"/>
-      <c r="E17" s="43" t="s">
-        <v>78</v>
+      <c r="D17" s="32"/>
+      <c r="E17" s="40" t="s">
+        <v>77</v>
       </c>
       <c r="F17" s="13"/>
-      <c r="G17" s="42"/>
+      <c r="G17" s="39"/>
       <c r="H17" s="10"/>
-      <c r="I17" s="49"/>
-      <c r="J17" s="50"/>
-      <c r="K17" s="42"/>
-      <c r="L17" s="42"/>
-      <c r="M17" s="53"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="44"/>
+      <c r="K17" s="39"/>
+      <c r="L17" s="39"/>
+      <c r="M17" s="46"/>
     </row>
     <row r="18" s="20" customFormat="1" spans="1:13">
       <c r="A18" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C18" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="B18" s="32" t="s">
+      <c r="D18" s="32"/>
+      <c r="E18" s="40" t="s">
+        <v>79</v>
+      </c>
+      <c r="F18" s="13"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="43"/>
+      <c r="J18" s="44"/>
+      <c r="K18" s="39"/>
+      <c r="L18" s="39"/>
+      <c r="M18" s="46"/>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="31" t="s">
         <v>80</v>
       </c>
-      <c r="C18" s="33" t="s">
+      <c r="C19" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="D18" s="33"/>
-      <c r="E18" s="43" t="s">
+      <c r="D19" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="40" t="s">
         <v>82</v>
       </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="42" t="s">
+      <c r="F19" s="13"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="39"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="24"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="11"/>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="H18" s="10"/>
-      <c r="I18" s="49"/>
-      <c r="J18" s="50"/>
-      <c r="K18" s="42" t="s">
+      <c r="B20" s="31" t="s">
         <v>84</v>
       </c>
-      <c r="L18" s="42"/>
-      <c r="M18" s="53"/>
-    </row>
-    <row r="19" s="22" customFormat="1" spans="1:12">
-      <c r="A19" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19" s="34" t="s">
+      <c r="C20" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="40"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="31"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="39"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="11"/>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="31" t="s">
         <v>85</v>
       </c>
-      <c r="C19" s="35" t="s">
+      <c r="B21" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="D19" s="35" t="s">
+      <c r="C21" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="E19" s="44" t="s">
-        <v>87</v>
-      </c>
-      <c r="F19" s="34"/>
-      <c r="G19" s="45"/>
-      <c r="H19" s="46"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="44"/>
-      <c r="L19" s="44"/>
-    </row>
-    <row r="20" s="22" customFormat="1" spans="1:12">
-      <c r="A20" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="34" t="s">
-        <v>88</v>
-      </c>
-      <c r="C20" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="D20" s="35" t="s">
+      <c r="D21" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="E20" s="44" t="s">
-        <v>90</v>
-      </c>
-      <c r="F20" s="34"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="46"/>
-      <c r="I20" s="44"/>
-      <c r="J20" s="51"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
-    </row>
-    <row r="21" s="22" customFormat="1" spans="1:12">
-      <c r="A21" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" s="34" t="s">
-        <v>91</v>
-      </c>
-      <c r="C21" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="D21" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E21" s="44" t="s">
-        <v>93</v>
-      </c>
-      <c r="F21" s="34"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="44"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="44"/>
-    </row>
-    <row r="22" s="22" customFormat="1" spans="1:12">
-      <c r="A22" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="34" t="s">
-        <v>94</v>
-      </c>
-      <c r="C22" s="35" t="s">
-        <v>95</v>
-      </c>
-      <c r="D22" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="44" t="s">
-        <v>96</v>
-      </c>
-      <c r="F22" s="34"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="44"/>
-      <c r="J22" s="51"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="44"/>
-    </row>
-    <row r="23" s="22" customFormat="1" spans="1:12">
-      <c r="A23" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="B23" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="C23" s="35" t="s">
-        <v>98</v>
-      </c>
-      <c r="D23" s="35" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="44" t="s">
-        <v>99</v>
-      </c>
-      <c r="F23" s="34"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="46"/>
-      <c r="I23" s="44"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="44"/>
-    </row>
-    <row r="24" s="22" customFormat="1" spans="1:12">
-      <c r="A24" s="34" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="C24" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="D24" s="35"/>
-      <c r="E24" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="F24" s="34"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="44"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="44"/>
-    </row>
-    <row r="25" s="22" customFormat="1" spans="1:12">
-      <c r="A25" s="34" t="s">
-        <v>103</v>
-      </c>
-      <c r="B25" s="34"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="35"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="45"/>
-      <c r="H25" s="46"/>
-      <c r="I25" s="44"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="44"/>
-      <c r="L25" s="44"/>
-    </row>
-    <row r="26" spans="1:15">
-      <c r="A26" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B26" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="C26" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="D26" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26" s="43" t="s">
-        <v>106</v>
-      </c>
-      <c r="F26" s="13"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="32"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="13"/>
-      <c r="K26" s="42"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="25"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-    </row>
-    <row r="27" spans="1:15">
-      <c r="A27" s="10" t="s">
-        <v>107</v>
-      </c>
-      <c r="B27" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="C27" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="D27" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="E27" s="43"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="32"/>
-      <c r="I27" s="12"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="42"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="25"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-    </row>
-    <row r="28" spans="1:15">
-      <c r="A28" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="B28" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="C28" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="D28" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="E28" s="43"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="32"/>
-      <c r="I28" s="12"/>
-      <c r="J28" s="13"/>
-      <c r="K28" s="42"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="25"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="31"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="39"/>
+      <c r="L21" s="11"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="11"/>
+      <c r="O21" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2942,7 +2693,7 @@
   <sheetPr/>
   <dimension ref="A1:H173"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2:D24"/>
@@ -2959,7 +2710,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="6" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>1</v>
@@ -2971,28 +2722,28 @@
         <v>4</v>
       </c>
       <c r="E1" s="16" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="F1" s="17" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="G1" s="17" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="H1" s="4"/>
     </row>
     <row r="2" s="4" customFormat="1" spans="1:8">
       <c r="A2" s="8" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>116</v>
+        <v>92</v>
       </c>
       <c r="E2" s="18"/>
       <c r="F2" s="16"/>
@@ -3001,16 +2752,16 @@
     </row>
     <row r="3" s="4" customFormat="1" spans="1:8">
       <c r="A3" s="8" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>117</v>
+        <v>93</v>
       </c>
       <c r="E3" s="18"/>
       <c r="F3" s="16"/>
@@ -3019,16 +2770,16 @@
     </row>
     <row r="4" s="4" customFormat="1" spans="1:8">
       <c r="A4" s="8" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>118</v>
+        <v>94</v>
       </c>
       <c r="E4" s="18"/>
       <c r="F4" s="16"/>
@@ -3037,16 +2788,16 @@
     </row>
     <row r="5" s="4" customFormat="1" spans="1:8">
       <c r="A5" s="8" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>119</v>
+        <v>95</v>
       </c>
       <c r="E5" s="18"/>
       <c r="F5" s="16"/>
@@ -3055,16 +2806,16 @@
     </row>
     <row r="6" s="4" customFormat="1" spans="1:8">
       <c r="A6" s="8" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>120</v>
+        <v>96</v>
       </c>
       <c r="E6" s="18"/>
       <c r="F6" s="16"/>
@@ -3073,16 +2824,16 @@
     </row>
     <row r="7" s="4" customFormat="1" spans="1:8">
       <c r="A7" s="8" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="E7" s="18"/>
       <c r="F7" s="16"/>
@@ -3091,16 +2842,16 @@
     </row>
     <row r="8" s="4" customFormat="1" spans="1:8">
       <c r="A8" s="8" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>122</v>
+        <v>98</v>
       </c>
       <c r="E8" s="18"/>
       <c r="F8" s="16"/>
@@ -3109,16 +2860,16 @@
     </row>
     <row r="9" s="4" customFormat="1" spans="1:8">
       <c r="A9" s="8" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>123</v>
+        <v>99</v>
       </c>
       <c r="E9" s="18"/>
       <c r="F9" s="16"/>
@@ -3127,16 +2878,16 @@
     </row>
     <row r="10" s="4" customFormat="1" spans="1:8">
       <c r="A10" s="8" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="E10" s="18"/>
       <c r="F10" s="16"/>
@@ -3145,16 +2896,16 @@
     </row>
     <row r="11" s="4" customFormat="1" spans="1:8">
       <c r="A11" s="8" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>125</v>
+        <v>101</v>
       </c>
       <c r="E11" s="18"/>
       <c r="F11" s="16"/>
@@ -3163,16 +2914,16 @@
     </row>
     <row r="12" s="4" customFormat="1" spans="1:8">
       <c r="A12" s="8" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>126</v>
+        <v>102</v>
       </c>
       <c r="E12" s="18"/>
       <c r="F12" s="16"/>
@@ -3181,16 +2932,16 @@
     </row>
     <row r="13" s="4" customFormat="1" spans="1:8">
       <c r="A13" s="8" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>127</v>
+        <v>103</v>
       </c>
       <c r="E13" s="18"/>
       <c r="F13" s="16"/>
@@ -3199,16 +2950,16 @@
     </row>
     <row r="14" s="4" customFormat="1" spans="1:8">
       <c r="A14" s="8" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>128</v>
+        <v>104</v>
       </c>
       <c r="E14" s="18"/>
       <c r="F14" s="16"/>
@@ -3217,16 +2968,16 @@
     </row>
     <row r="15" s="4" customFormat="1" spans="1:8">
       <c r="A15" s="8" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>129</v>
+        <v>105</v>
       </c>
       <c r="E15" s="18"/>
       <c r="F15" s="16"/>
@@ -3235,16 +2986,16 @@
     </row>
     <row r="16" s="4" customFormat="1" spans="1:8">
       <c r="A16" s="8" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="E16" s="18"/>
       <c r="F16" s="16"/>
@@ -3253,16 +3004,16 @@
     </row>
     <row r="17" s="4" customFormat="1" spans="1:8">
       <c r="A17" s="8" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="E17" s="18"/>
       <c r="F17" s="16"/>
@@ -3271,16 +3022,16 @@
     </row>
     <row r="18" s="4" customFormat="1" spans="1:8">
       <c r="A18" s="8" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="E18" s="18"/>
       <c r="F18" s="16"/>
@@ -3289,16 +3040,16 @@
     </row>
     <row r="19" s="4" customFormat="1" spans="1:8">
       <c r="A19" s="8" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="E19" s="18"/>
       <c r="F19" s="16"/>
@@ -3307,16 +3058,16 @@
     </row>
     <row r="20" s="4" customFormat="1" spans="1:8">
       <c r="A20" s="8" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="E20" s="18"/>
       <c r="F20" s="16"/>
@@ -3325,16 +3076,16 @@
     </row>
     <row r="21" s="4" customFormat="1" spans="1:8">
       <c r="A21" s="8" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="E21" s="18"/>
       <c r="F21" s="16"/>
@@ -3343,16 +3094,16 @@
     </row>
     <row r="22" s="4" customFormat="1" spans="1:8">
       <c r="A22" s="8" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="E22" s="18"/>
       <c r="F22" s="16"/>
@@ -3361,16 +3112,16 @@
     </row>
     <row r="23" s="4" customFormat="1" spans="1:8">
       <c r="A23" s="8" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="E23" s="18"/>
       <c r="F23" s="16"/>
@@ -3379,16 +3130,16 @@
     </row>
     <row r="24" s="4" customFormat="1" spans="1:8">
       <c r="A24" s="8" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="E24" s="18"/>
       <c r="F24" s="16"/>
@@ -3407,44 +3158,44 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="10" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="B26" s="11" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="10" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="B27" s="11" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="14" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="B29" s="15" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="E29" s="16"/>
       <c r="F29" s="4"/>
@@ -3452,16 +3203,16 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="14" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="B30" s="15" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="D30" s="15" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="E30" s="16"/>
       <c r="F30" s="4"/>
@@ -3469,16 +3220,16 @@
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="14" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="D31" s="15" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="E31" s="16"/>
       <c r="F31" s="4"/>
@@ -3486,16 +3237,16 @@
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="14" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="B32" s="15" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="D32" s="15" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="E32" s="16"/>
       <c r="F32" s="4"/>
@@ -3503,16 +3254,16 @@
     </row>
     <row r="33" spans="1:7">
       <c r="A33" s="14" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="B33" s="15" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="D33" s="15" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="E33" s="16"/>
       <c r="F33" s="4"/>
@@ -3520,16 +3271,16 @@
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="14" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="B34" s="15" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="E34" s="16"/>
       <c r="F34" s="4"/>
@@ -3537,16 +3288,16 @@
     </row>
     <row r="35" spans="1:7">
       <c r="A35" s="14" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="B35" s="15" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="D35" s="15" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="E35" s="16"/>
       <c r="F35" s="4"/>
@@ -3563,646 +3314,646 @@
     </row>
     <row r="37" spans="1:7">
       <c r="A37" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="B37" s="15" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="D37" s="15" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="E37" s="15" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
     </row>
     <row r="38" spans="1:7">
       <c r="A38" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="B38" s="15" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="D38" s="15" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="E38" s="15" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="B39" s="15" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="D39" s="15" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="E39" s="15" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
     </row>
     <row r="40" spans="1:7">
       <c r="A40" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="B40" s="15" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="D40" s="15" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="E40" s="15" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
     </row>
     <row r="41" spans="1:7">
       <c r="A41" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="B41" s="15" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="D41" s="15" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="E41" s="15" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="B42" s="15" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="D42" s="15" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="E42" s="15" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="B43" s="15" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="D43" s="15" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="E43" s="15" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
     </row>
     <row r="44" spans="1:7">
       <c r="A44" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="B44" s="15" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="D44" s="15" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="E44" s="15" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="F44" s="4"/>
       <c r="G44" s="4"/>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="B45" s="15" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="D45" s="15" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="E45" s="15" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="F45" s="4"/>
       <c r="G45" s="4"/>
     </row>
     <row r="46" spans="1:7">
       <c r="A46" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="B46" s="15" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="D46" s="15" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="E46" s="15" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="F46" s="4"/>
       <c r="G46" s="4"/>
     </row>
     <row r="47" spans="1:7">
       <c r="A47" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="B47" s="15" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="D47" s="15" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="E47" s="15" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="F47" s="4"/>
       <c r="G47" s="4"/>
     </row>
     <row r="48" spans="1:7">
       <c r="A48" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="B48" s="15" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="D48" s="15" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="E48" s="15" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="F48" s="4"/>
       <c r="G48" s="4"/>
     </row>
     <row r="49" spans="1:7">
       <c r="A49" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="B49" s="15" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="D49" s="15" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="E49" s="15" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="F49" s="4"/>
       <c r="G49" s="4"/>
     </row>
     <row r="50" spans="1:7">
       <c r="A50" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="B50" s="15" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="D50" s="15" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="E50" s="15" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="F50" s="4"/>
       <c r="G50" s="4"/>
     </row>
     <row r="51" spans="1:7">
       <c r="A51" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="D51" s="15" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="E51" s="15" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="F51" s="4"/>
       <c r="G51" s="4"/>
     </row>
     <row r="52" spans="1:7">
       <c r="A52" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="B52" s="15" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="D52" s="15" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="E52" s="15" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="F52" s="4"/>
       <c r="G52" s="4"/>
     </row>
     <row r="53" spans="1:7">
       <c r="A53" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="B53" s="15" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="D53" s="15" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="E53" s="15" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="F53" s="4"/>
       <c r="G53" s="4"/>
     </row>
     <row r="54" spans="1:7">
       <c r="A54" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="B54" s="15" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="D54" s="15" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="E54" s="15" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="F54" s="4"/>
       <c r="G54" s="4"/>
     </row>
     <row r="55" spans="1:7">
       <c r="A55" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="B55" s="15" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="D55" s="15" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="E55" s="15" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="F55" s="4"/>
       <c r="G55" s="4"/>
     </row>
     <row r="56" spans="1:7">
       <c r="A56" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="B56" s="15" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="D56" s="15" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="E56" s="15" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="F56" s="4"/>
       <c r="G56" s="4"/>
     </row>
     <row r="57" spans="1:7">
       <c r="A57" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="B57" s="15" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="D57" s="15" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="E57" s="15" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="F57" s="4"/>
       <c r="G57" s="4"/>
     </row>
     <row r="58" spans="1:7">
       <c r="A58" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="B58" s="15" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="D58" s="15" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="E58" s="15" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="F58" s="4"/>
       <c r="G58" s="4"/>
     </row>
     <row r="59" spans="1:7">
       <c r="A59" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="B59" s="15" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="D59" s="15" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="E59" s="15" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="F59" s="4"/>
       <c r="G59" s="4"/>
     </row>
     <row r="60" spans="1:7">
       <c r="A60" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="B60" s="15" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="D60" s="15" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="E60" s="15" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="F60" s="4"/>
       <c r="G60" s="4"/>
     </row>
     <row r="61" spans="1:7">
       <c r="A61" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="B61" s="15" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="D61" s="15" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="E61" s="15" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="F61" s="4"/>
       <c r="G61" s="4"/>
     </row>
     <row r="62" spans="1:7">
       <c r="A62" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="B62" s="15" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="D62" s="15" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="E62" s="15" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="F62" s="4"/>
       <c r="G62" s="4"/>
     </row>
     <row r="63" spans="1:7">
       <c r="A63" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="B63" s="15" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="D63" s="15" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="E63" s="15" t="s">
-        <v>146</v>
+        <v>122</v>
       </c>
       <c r="F63" s="4"/>
       <c r="G63" s="4"/>
     </row>
     <row r="64" spans="1:7">
       <c r="A64" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="B64" s="15" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="D64" s="15" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="E64" s="15" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
     </row>
     <row r="65" spans="1:7">
       <c r="A65" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="B65" s="15" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="D65" s="15" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="E65" s="15" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="F65" s="4"/>
       <c r="G65" s="4"/>
     </row>
     <row r="66" spans="1:7">
       <c r="A66" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="B66" s="15" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="D66" s="15" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="E66" s="15" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="F66" s="4"/>
       <c r="G66" s="4"/>
     </row>
     <row r="67" spans="1:7">
       <c r="A67" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="B67" s="15" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="D67" s="15" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="E67" s="15" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="F67" s="4"/>
       <c r="G67" s="4"/>
     </row>
     <row r="68" spans="1:7">
       <c r="A68" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="B68" s="15" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="D68" s="15" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="E68" s="15" t="s">
-        <v>149</v>
+        <v>125</v>
       </c>
       <c r="F68" s="4"/>
       <c r="G68" s="4"/>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="B69" s="15" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="D69" s="15" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="E69" s="15" t="s">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="F69" s="4"/>
       <c r="G69" s="4"/>
     </row>
     <row r="70" spans="1:7">
       <c r="A70" s="4" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="B70" s="15" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="D70" s="15" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="E70" s="15" t="s">
-        <v>148</v>
+        <v>124</v>
       </c>
       <c r="F70" s="4"/>
       <c r="G70" s="4"/>
@@ -4218,1920 +3969,1920 @@
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B72" s="15" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="D72" s="15" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="E72" s="4"/>
       <c r="F72" s="15" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="G72" s="4"/>
     </row>
     <row r="73" spans="1:7">
       <c r="A73" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B73" s="15" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="D73" s="15" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="E73" s="4"/>
       <c r="F73" s="15" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="G73" s="4"/>
     </row>
     <row r="74" spans="1:7">
       <c r="A74" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B74" s="15" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="D74" s="15" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="E74" s="4"/>
       <c r="F74" s="15" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="G74" s="4"/>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B75" s="15" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="D75" s="15" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="E75" s="4"/>
       <c r="F75" s="15" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="G75" s="4"/>
     </row>
     <row r="76" spans="1:7">
       <c r="A76" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B76" s="15" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="D76" s="15" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="E76" s="4"/>
       <c r="F76" s="15" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="G76" s="4"/>
     </row>
     <row r="77" spans="1:7">
       <c r="A77" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B77" s="15" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="D77" s="15" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="E77" s="4"/>
       <c r="F77" s="15" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="G77" s="4"/>
     </row>
     <row r="78" spans="1:7">
       <c r="A78" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="D78" s="15" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="E78" s="4"/>
       <c r="F78" s="15" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="G78" s="4"/>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B79" s="15" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="D79" s="15" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="E79" s="4"/>
       <c r="F79" s="15" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="G79" s="4"/>
     </row>
     <row r="80" ht="31.5" spans="1:7">
       <c r="A80" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B80" s="15" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="D80" s="15" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="E80" s="4"/>
       <c r="F80" s="15" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="G80" s="4"/>
     </row>
     <row r="81" spans="1:7">
       <c r="A81" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B81" s="15" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="D81" s="15" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="E81" s="4"/>
       <c r="F81" s="15" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="G81" s="4"/>
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B82" s="15" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="C82" s="15" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="D82" s="15" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="E82" s="4"/>
       <c r="F82" s="15" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="G82" s="4"/>
     </row>
     <row r="83" spans="1:7">
       <c r="A83" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B83" s="15" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="D83" s="15" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="E83" s="4"/>
       <c r="F83" s="15" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="G83" s="4"/>
     </row>
     <row r="84" spans="1:7">
       <c r="A84" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B84" s="15" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="C84" s="15" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="D84" s="15" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="E84" s="4"/>
       <c r="F84" s="15" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="G84" s="4"/>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B85" s="15" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="C85" s="15" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="D85" s="15" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="E85" s="4"/>
       <c r="F85" s="15" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="G85" s="4"/>
     </row>
     <row r="86" spans="1:7">
       <c r="A86" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B86" s="15" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="C86" s="15" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="D86" s="15" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="E86" s="4"/>
       <c r="F86" s="15" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="G86" s="4"/>
     </row>
     <row r="87" spans="1:7">
       <c r="A87" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B87" s="15" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="C87" s="15" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="D87" s="15" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="E87" s="4"/>
       <c r="F87" s="15" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="G87" s="4"/>
     </row>
     <row r="88" spans="1:7">
       <c r="A88" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B88" s="15" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="D88" s="15" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="E88" s="4"/>
       <c r="F88" s="15" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="G88" s="4"/>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B89" s="15" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="C89" s="15" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="D89" s="15" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="E89" s="4"/>
       <c r="F89" s="15" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="G89" s="4"/>
     </row>
     <row r="90" ht="31.5" spans="1:7">
       <c r="A90" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B90" s="15" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="C90" s="15" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="D90" s="15" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="E90" s="4"/>
       <c r="F90" s="15" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="G90" s="4"/>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B91" s="15" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="C91" s="15" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="D91" s="15" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="E91" s="4"/>
       <c r="F91" s="15" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="G91" s="4"/>
     </row>
     <row r="92" spans="1:7">
       <c r="A92" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B92" s="15" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="C92" s="15" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="D92" s="15" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="E92" s="4"/>
       <c r="F92" s="15" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="G92" s="4"/>
     </row>
     <row r="93" spans="1:7">
       <c r="A93" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B93" s="15" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="C93" s="15" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="D93" s="15" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="E93" s="4"/>
       <c r="F93" s="15" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="G93" s="4"/>
     </row>
     <row r="94" spans="1:7">
       <c r="A94" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B94" s="15" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="C94" s="15" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="D94" s="15" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="E94" s="4"/>
       <c r="F94" s="15" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="G94" s="4"/>
     </row>
     <row r="95" ht="31.5" spans="1:7">
       <c r="A95" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B95" s="15" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="C95" s="15" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="D95" s="15" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="E95" s="4"/>
       <c r="F95" s="15" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="G95" s="4"/>
     </row>
     <row r="96" ht="31.5" spans="1:7">
       <c r="A96" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B96" s="15" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="C96" s="15" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="D96" s="15" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="E96" s="4"/>
       <c r="F96" s="15" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="G96" s="4"/>
     </row>
     <row r="97" spans="1:7">
       <c r="A97" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B97" s="15" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="C97" s="15" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="D97" s="15" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="E97" s="4"/>
       <c r="F97" s="15" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="G97" s="4"/>
     </row>
     <row r="98" spans="1:7">
       <c r="A98" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B98" s="15" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="C98" s="15" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="D98" s="15" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="E98" s="4"/>
       <c r="F98" s="15" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="G98" s="4"/>
     </row>
     <row r="99" spans="1:7">
       <c r="A99" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B99" s="15" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="C99" s="15" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="D99" s="15" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="E99" s="4"/>
       <c r="F99" s="15" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="G99" s="4"/>
     </row>
     <row r="100" spans="1:7">
       <c r="A100" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B100" s="15" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="C100" s="15" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="D100" s="15" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="E100" s="4"/>
       <c r="F100" s="15" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="G100" s="4"/>
     </row>
     <row r="101" ht="47.25" spans="1:7">
       <c r="A101" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B101" s="15" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="C101" s="15" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="D101" s="15" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
       <c r="E101" s="4"/>
       <c r="F101" s="15" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="G101" s="4"/>
     </row>
     <row r="102" spans="1:7">
       <c r="A102" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B102" s="15" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="C102" s="15" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="D102" s="15" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="E102" s="4"/>
       <c r="F102" s="15" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="G102" s="4"/>
     </row>
     <row r="103" spans="1:7">
       <c r="A103" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B103" s="15" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="C103" s="15" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="D103" s="15" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="E103" s="4"/>
       <c r="F103" s="15" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="G103" s="4"/>
     </row>
     <row r="104" spans="1:7">
       <c r="A104" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B104" s="15" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="C104" s="15" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="D104" s="15" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="E104" s="4"/>
       <c r="F104" s="15" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="G104" s="4"/>
     </row>
     <row r="105" spans="1:7">
       <c r="A105" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B105" s="15" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="C105" s="15" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="D105" s="15" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="E105" s="4"/>
       <c r="F105" s="15" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="G105" s="4"/>
     </row>
     <row r="106" ht="31.5" spans="1:7">
       <c r="A106" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B106" s="15" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="C106" s="15" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="D106" s="15" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="E106" s="4"/>
       <c r="F106" s="15" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="G106" s="4"/>
     </row>
     <row r="107" spans="1:7">
       <c r="A107" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B107" s="15" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="C107" s="15" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="D107" s="15" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="E107" s="4"/>
       <c r="F107" s="15" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="G107" s="4"/>
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B108" s="15" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="C108" s="15" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="D108" s="15" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="E108" s="4"/>
       <c r="F108" s="15" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="G108" s="4"/>
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B109" s="15" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="C109" s="15" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="D109" s="15" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="E109" s="4"/>
       <c r="F109" s="15" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="G109" s="4"/>
     </row>
     <row r="110" spans="1:7">
       <c r="A110" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B110" s="15" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="C110" s="15" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="D110" s="15" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="E110" s="4"/>
       <c r="F110" s="15" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="G110" s="4"/>
     </row>
     <row r="111" spans="1:7">
       <c r="A111" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B111" s="15" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="C111" s="15" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="D111" s="15" t="s">
-        <v>221</v>
+        <v>197</v>
       </c>
       <c r="E111" s="4"/>
       <c r="F111" s="15" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="G111" s="4"/>
     </row>
     <row r="112" ht="31.5" spans="1:7">
       <c r="A112" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B112" s="15" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="C112" s="15" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="D112" s="15" t="s">
-        <v>222</v>
+        <v>198</v>
       </c>
       <c r="E112" s="4"/>
       <c r="F112" s="15" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="G112" s="4"/>
     </row>
     <row r="113" spans="1:7">
       <c r="A113" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B113" s="15" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="C113" s="15" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="D113" s="15" t="s">
-        <v>223</v>
+        <v>199</v>
       </c>
       <c r="E113" s="4"/>
       <c r="F113" s="15" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="G113" s="4"/>
     </row>
     <row r="114" spans="1:7">
       <c r="A114" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B114" s="15" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="C114" s="15" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="D114" s="15" t="s">
-        <v>224</v>
+        <v>200</v>
       </c>
       <c r="E114" s="4"/>
       <c r="F114" s="15" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="G114" s="4"/>
     </row>
     <row r="115" spans="1:7">
       <c r="A115" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B115" s="15" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="C115" s="15" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="D115" s="15" t="s">
-        <v>225</v>
+        <v>201</v>
       </c>
       <c r="E115" s="4"/>
       <c r="F115" s="15" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="G115" s="4"/>
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B116" s="15" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="C116" s="15" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="D116" s="15" t="s">
-        <v>226</v>
+        <v>202</v>
       </c>
       <c r="E116" s="4"/>
       <c r="F116" s="15" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="G116" s="4"/>
     </row>
     <row r="117" spans="1:7">
       <c r="A117" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B117" s="15" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="C117" s="15" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="D117" s="15" t="s">
-        <v>227</v>
+        <v>203</v>
       </c>
       <c r="E117" s="4"/>
       <c r="F117" s="15" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="G117" s="4"/>
     </row>
     <row r="118" spans="1:7">
       <c r="A118" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B118" s="15" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="C118" s="15" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="D118" s="15" t="s">
-        <v>228</v>
+        <v>204</v>
       </c>
       <c r="E118" s="4"/>
       <c r="F118" s="15" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="G118" s="4"/>
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B119" s="15" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="C119" s="15" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="D119" s="15" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="E119" s="4"/>
       <c r="F119" s="15" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="G119" s="4"/>
     </row>
     <row r="120" spans="1:7">
       <c r="A120" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B120" s="15" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="C120" s="15" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="D120" s="15" t="s">
-        <v>230</v>
+        <v>206</v>
       </c>
       <c r="E120" s="4"/>
       <c r="F120" s="15" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="G120" s="4"/>
     </row>
     <row r="121" ht="31.5" spans="1:7">
       <c r="A121" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B121" s="15" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="C121" s="15" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="D121" s="15" t="s">
-        <v>231</v>
+        <v>207</v>
       </c>
       <c r="E121" s="4"/>
       <c r="F121" s="15" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="G121" s="4"/>
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B122" s="15" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="C122" s="15" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="D122" s="15" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="E122" s="4"/>
       <c r="F122" s="15" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="G122" s="4"/>
     </row>
     <row r="123" spans="1:7">
       <c r="A123" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B123" s="15" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="C123" s="15" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="D123" s="15" t="s">
-        <v>233</v>
+        <v>209</v>
       </c>
       <c r="E123" s="4"/>
       <c r="F123" s="15" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="G123" s="4"/>
     </row>
     <row r="124" spans="1:7">
       <c r="A124" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B124" s="15" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
       <c r="C124" s="15" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
       <c r="D124" s="15" t="s">
-        <v>234</v>
+        <v>210</v>
       </c>
       <c r="E124" s="4"/>
       <c r="F124" s="15" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="G124" s="4"/>
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B125" s="15" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="C125" s="15" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="D125" s="15" t="s">
-        <v>235</v>
+        <v>211</v>
       </c>
       <c r="E125" s="4"/>
       <c r="F125" s="15" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="G125" s="4"/>
     </row>
     <row r="126" spans="1:7">
       <c r="A126" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B126" s="15" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="C126" s="15" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="D126" s="15" t="s">
-        <v>236</v>
+        <v>212</v>
       </c>
       <c r="E126" s="4"/>
       <c r="F126" s="15" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="G126" s="4"/>
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B127" s="15" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="C127" s="15" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="D127" s="15" t="s">
-        <v>237</v>
+        <v>213</v>
       </c>
       <c r="E127" s="4"/>
       <c r="F127" s="15" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="G127" s="4"/>
     </row>
     <row r="128" spans="1:7">
       <c r="A128" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B128" s="15" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="C128" s="15" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="D128" s="15" t="s">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="E128" s="4"/>
       <c r="F128" s="15" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="G128" s="4"/>
     </row>
     <row r="129" spans="1:7">
       <c r="A129" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B129" s="15" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="C129" s="15" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="D129" s="15" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="E129" s="4"/>
       <c r="F129" s="15" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="G129" s="4"/>
     </row>
     <row r="130" spans="1:7">
       <c r="A130" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B130" s="15" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="C130" s="15" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="D130" s="15" t="s">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="E130" s="4"/>
       <c r="F130" s="15" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="G130" s="4"/>
     </row>
     <row r="131" spans="1:7">
       <c r="A131" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B131" s="15" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="C131" s="15" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="D131" s="15" t="s">
-        <v>240</v>
+        <v>216</v>
       </c>
       <c r="E131" s="4"/>
       <c r="F131" s="15" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="G131" s="4"/>
     </row>
     <row r="132" spans="1:7">
       <c r="A132" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B132" s="15" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="C132" s="15" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="D132" s="15" t="s">
-        <v>241</v>
+        <v>217</v>
       </c>
       <c r="E132" s="4"/>
       <c r="F132" s="15" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="G132" s="4"/>
     </row>
     <row r="133" spans="1:7">
       <c r="A133" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B133" s="15" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="C133" s="15" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="D133" s="15" t="s">
-        <v>242</v>
+        <v>218</v>
       </c>
       <c r="E133" s="4"/>
       <c r="F133" s="15" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="G133" s="4"/>
     </row>
     <row r="134" spans="1:7">
       <c r="A134" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B134" s="15" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="C134" s="15" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="D134" s="15" t="s">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="E134" s="4"/>
       <c r="F134" s="15" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="G134" s="4"/>
     </row>
     <row r="135" spans="1:7">
       <c r="A135" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B135" s="15" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="C135" s="15" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="D135" s="15" t="s">
-        <v>244</v>
+        <v>220</v>
       </c>
       <c r="E135" s="4"/>
       <c r="F135" s="15" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="G135" s="4"/>
     </row>
     <row r="136" spans="1:7">
       <c r="A136" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B136" s="15" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="C136" s="15" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="D136" s="15" t="s">
-        <v>245</v>
+        <v>221</v>
       </c>
       <c r="E136" s="4"/>
       <c r="F136" s="15" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="G136" s="4"/>
     </row>
     <row r="137" spans="1:7">
       <c r="A137" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B137" s="15" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="C137" s="15" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="D137" s="15" t="s">
-        <v>246</v>
+        <v>222</v>
       </c>
       <c r="E137" s="4"/>
       <c r="F137" s="15" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="G137" s="4"/>
     </row>
     <row r="138" spans="1:7">
       <c r="A138" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B138" s="15" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="C138" s="15" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="D138" s="15" t="s">
-        <v>247</v>
+        <v>223</v>
       </c>
       <c r="E138" s="4"/>
       <c r="F138" s="15" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="G138" s="4"/>
     </row>
     <row r="139" spans="1:7">
       <c r="A139" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B139" s="15" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="C139" s="15" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="D139" s="15" t="s">
-        <v>248</v>
+        <v>224</v>
       </c>
       <c r="E139" s="4"/>
       <c r="F139" s="15" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="G139" s="4"/>
     </row>
     <row r="140" spans="1:7">
       <c r="A140" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B140" s="15" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="C140" s="15" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="D140" s="15" t="s">
-        <v>249</v>
+        <v>225</v>
       </c>
       <c r="E140" s="4"/>
       <c r="F140" s="15" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="G140" s="4"/>
     </row>
     <row r="141" spans="1:7">
       <c r="A141" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B141" s="15" t="s">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="C141" s="15" t="s">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="D141" s="15" t="s">
-        <v>250</v>
+        <v>226</v>
       </c>
       <c r="E141" s="4"/>
       <c r="F141" s="15" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="G141" s="4"/>
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B142" s="15" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="C142" s="15" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="D142" s="15" t="s">
-        <v>251</v>
+        <v>227</v>
       </c>
       <c r="E142" s="4"/>
       <c r="F142" s="15" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="G142" s="4"/>
     </row>
     <row r="143" spans="1:7">
       <c r="A143" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B143" s="15" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
       <c r="C143" s="15" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
       <c r="D143" s="15" t="s">
-        <v>252</v>
+        <v>228</v>
       </c>
       <c r="E143" s="4"/>
       <c r="F143" s="15" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="G143" s="4"/>
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B144" s="15" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
       <c r="C144" s="15" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
       <c r="D144" s="15" t="s">
-        <v>253</v>
+        <v>229</v>
       </c>
       <c r="E144" s="4"/>
       <c r="F144" s="15" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="G144" s="4"/>
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B145" s="15" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
       <c r="C145" s="15" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
       <c r="D145" s="15" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
       <c r="E145" s="4"/>
       <c r="F145" s="15" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="G145" s="4"/>
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B146" s="15" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
       <c r="C146" s="15" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
       <c r="D146" s="15" t="s">
-        <v>255</v>
+        <v>231</v>
       </c>
       <c r="E146" s="4"/>
       <c r="F146" s="15" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="G146" s="4"/>
     </row>
     <row r="147" spans="1:7">
       <c r="A147" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B147" s="15" t="s">
-        <v>256</v>
+        <v>232</v>
       </c>
       <c r="C147" s="15" t="s">
-        <v>256</v>
+        <v>232</v>
       </c>
       <c r="D147" s="15" t="s">
-        <v>256</v>
+        <v>232</v>
       </c>
       <c r="E147" s="4"/>
       <c r="F147" s="15" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="G147" s="4"/>
     </row>
     <row r="148" spans="1:7">
       <c r="A148" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B148" s="15" t="s">
-        <v>257</v>
+        <v>233</v>
       </c>
       <c r="C148" s="15" t="s">
-        <v>257</v>
+        <v>233</v>
       </c>
       <c r="D148" s="15" t="s">
-        <v>257</v>
+        <v>233</v>
       </c>
       <c r="E148" s="4"/>
       <c r="F148" s="15" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="G148" s="4"/>
     </row>
     <row r="149" spans="1:7">
       <c r="A149" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B149" s="15" t="s">
-        <v>258</v>
+        <v>234</v>
       </c>
       <c r="C149" s="15" t="s">
-        <v>258</v>
+        <v>234</v>
       </c>
       <c r="D149" s="15" t="s">
-        <v>258</v>
+        <v>234</v>
       </c>
       <c r="E149" s="4"/>
       <c r="F149" s="15" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="G149" s="4"/>
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B150" s="15" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="C150" s="15" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="D150" s="15" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="E150" s="4"/>
       <c r="F150" s="15" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="G150" s="4"/>
     </row>
     <row r="151" spans="1:7">
       <c r="A151" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B151" s="15" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="C151" s="15" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="D151" s="15" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="E151" s="4"/>
       <c r="F151" s="15" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="G151" s="4"/>
     </row>
     <row r="152" spans="1:7">
       <c r="A152" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B152" s="15" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="C152" s="15" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="D152" s="15" t="s">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="E152" s="4"/>
       <c r="F152" s="15" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="G152" s="4"/>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B153" s="15" t="s">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="C153" s="15" t="s">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="D153" s="15" t="s">
-        <v>261</v>
+        <v>237</v>
       </c>
       <c r="E153" s="4"/>
       <c r="F153" s="15" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="G153" s="4"/>
     </row>
     <row r="154" spans="1:7">
       <c r="A154" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B154" s="15" t="s">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="C154" s="15" t="s">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="D154" s="15" t="s">
-        <v>262</v>
+        <v>238</v>
       </c>
       <c r="E154" s="4"/>
       <c r="F154" s="15" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="G154" s="4"/>
     </row>
     <row r="155" spans="1:7">
       <c r="A155" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B155" s="15" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="C155" s="15" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="D155" s="15" t="s">
-        <v>263</v>
+        <v>239</v>
       </c>
       <c r="E155" s="4"/>
       <c r="F155" s="15" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="G155" s="4"/>
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B156" s="15" t="s">
-        <v>264</v>
+        <v>240</v>
       </c>
       <c r="C156" s="15" t="s">
-        <v>264</v>
+        <v>240</v>
       </c>
       <c r="D156" s="15" t="s">
-        <v>264</v>
+        <v>240</v>
       </c>
       <c r="E156" s="4"/>
       <c r="F156" s="15" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="G156" s="4"/>
     </row>
     <row r="157" spans="1:7">
       <c r="A157" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B157" s="15" t="s">
-        <v>265</v>
+        <v>241</v>
       </c>
       <c r="C157" s="15" t="s">
-        <v>265</v>
+        <v>241</v>
       </c>
       <c r="D157" s="15" t="s">
-        <v>265</v>
+        <v>241</v>
       </c>
       <c r="E157" s="4"/>
       <c r="F157" s="15" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="G157" s="4"/>
     </row>
     <row r="158" spans="1:7">
       <c r="A158" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B158" s="15" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="C158" s="15" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="D158" s="15" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="E158" s="4"/>
       <c r="F158" s="15" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="G158" s="4"/>
     </row>
     <row r="159" ht="31.5" spans="1:7">
       <c r="A159" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B159" s="15" t="s">
-        <v>266</v>
+        <v>242</v>
       </c>
       <c r="C159" s="15" t="s">
-        <v>266</v>
+        <v>242</v>
       </c>
       <c r="D159" s="15" t="s">
-        <v>266</v>
+        <v>242</v>
       </c>
       <c r="E159" s="4"/>
       <c r="F159" s="15" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="G159" s="4"/>
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B160" s="15" t="s">
-        <v>267</v>
+        <v>243</v>
       </c>
       <c r="C160" s="15" t="s">
-        <v>267</v>
+        <v>243</v>
       </c>
       <c r="D160" s="15" t="s">
-        <v>267</v>
+        <v>243</v>
       </c>
       <c r="E160" s="4"/>
       <c r="F160" s="15" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="G160" s="4"/>
     </row>
     <row r="161" spans="1:7">
       <c r="A161" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B161" s="15" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
       <c r="C161" s="15" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
       <c r="D161" s="15" t="s">
-        <v>268</v>
+        <v>244</v>
       </c>
       <c r="E161" s="4"/>
       <c r="F161" s="15" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="G161" s="4"/>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B162" s="15" t="s">
-        <v>269</v>
+        <v>245</v>
       </c>
       <c r="C162" s="15" t="s">
-        <v>269</v>
+        <v>245</v>
       </c>
       <c r="D162" s="15" t="s">
-        <v>269</v>
+        <v>245</v>
       </c>
       <c r="E162" s="4"/>
       <c r="F162" s="15" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="G162" s="4"/>
     </row>
     <row r="163" spans="1:7">
       <c r="A163" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B163" s="15" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="C163" s="15" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="D163" s="15" t="s">
-        <v>270</v>
+        <v>246</v>
       </c>
       <c r="E163" s="4"/>
       <c r="F163" s="15" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="G163" s="4"/>
     </row>
     <row r="164" spans="1:7">
       <c r="A164" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B164" s="15" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="C164" s="15" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="D164" s="15" t="s">
-        <v>271</v>
+        <v>247</v>
       </c>
       <c r="E164" s="4"/>
       <c r="F164" s="15" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="G164" s="4"/>
     </row>
     <row r="165" spans="1:7">
       <c r="A165" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B165" s="15" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c r="C165" s="15" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c r="D165" s="15" t="s">
-        <v>272</v>
+        <v>248</v>
       </c>
       <c r="E165" s="4"/>
       <c r="F165" s="15" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="G165" s="4"/>
     </row>
     <row r="166" ht="31.5" spans="1:7">
       <c r="A166" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B166" s="15" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
       <c r="C166" s="15" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
       <c r="D166" s="15" t="s">
-        <v>273</v>
+        <v>249</v>
       </c>
       <c r="E166" s="4"/>
       <c r="F166" s="15" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="G166" s="4"/>
     </row>
     <row r="167" spans="1:7">
       <c r="A167" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B167" s="15" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="C167" s="15" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="D167" s="15" t="s">
-        <v>274</v>
+        <v>250</v>
       </c>
       <c r="E167" s="4"/>
       <c r="F167" s="15" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="G167" s="4"/>
     </row>
     <row r="168" spans="1:7">
       <c r="A168" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B168" s="15" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="C168" s="15" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="D168" s="15" t="s">
-        <v>275</v>
+        <v>251</v>
       </c>
       <c r="E168" s="4"/>
       <c r="F168" s="15" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="G168" s="4"/>
     </row>
     <row r="169" spans="1:7">
       <c r="A169" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B169" s="15" t="s">
-        <v>276</v>
+        <v>252</v>
       </c>
       <c r="C169" s="15" t="s">
-        <v>276</v>
+        <v>252</v>
       </c>
       <c r="D169" s="15" t="s">
-        <v>276</v>
+        <v>252</v>
       </c>
       <c r="E169" s="4"/>
       <c r="F169" s="15" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="G169" s="4"/>
     </row>
     <row r="170" spans="1:7">
       <c r="A170" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B170" s="15" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="C170" s="15" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="D170" s="15" t="s">
-        <v>277</v>
+        <v>253</v>
       </c>
       <c r="E170" s="4"/>
       <c r="F170" s="15" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="G170" s="4"/>
     </row>
     <row r="171" spans="1:7">
       <c r="A171" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B171" s="15" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="C171" s="15" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="D171" s="15" t="s">
-        <v>278</v>
+        <v>254</v>
       </c>
       <c r="E171" s="4"/>
       <c r="F171" s="15" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="G171" s="4"/>
     </row>
     <row r="172" spans="1:7">
       <c r="A172" s="4" t="s">
-        <v>114</v>
+        <v>90</v>
       </c>
       <c r="B172" s="15" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="C172" s="15" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="D172" s="15" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="E172" s="4"/>
       <c r="F172" s="15" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="G172" s="4"/>
     </row>
@@ -6160,7 +5911,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="1" outlineLevelCol="2"/>
@@ -6171,24 +5922,24 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
-        <v>280</v>
+        <v>256</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>282</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="3" t="s">
-        <v>283</v>
+        <v>259</v>
       </c>
       <c r="B2" t="s">
-        <v>284</v>
+        <v>260</v>
       </c>
       <c r="C2" t="s">
-        <v>285</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>

--- a/SCH-STH/Impact assessments/Togo/tg_sch_sth_impact_3_kato_katz_202110.xlsx
+++ b/SCH-STH/Impact assessments/Togo/tg_sch_sth_impact_3_kato_katz_202110.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12345" tabRatio="500"/>
+    <workbookView windowWidth="28800" windowHeight="12345" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -181,7 +181,7 @@
     <t>Veuillez scanner le QR Code</t>
   </si>
   <si>
-    <t>regex(., '^[A-Z]{3}[0-9]{4}$') and substr(${k_district}, 0, 3) = substr(., 0, 3)</t>
+    <t>(regex(., '^[A-Z]{3}[0-9]{4}$') and substr(${k_district}, 0, 3) = substr(., 0, 3) and ${k_district} != 'KPENDJAL OUEST') or (if(${k_district} = 'KPENDJAL OUEST', if(substr(., 0, 3) = 'OUE', true(), false()), false()) and regex(., '^[A-Z]{3}[0-9]{4}$'))</t>
   </si>
   <si>
     <t>Please scan the QR code for the correct district. The first three letters of the QR code must match the first three letters of the district name. For example, TCH0001 for TCHAOUDJO.</t>
@@ -847,10 +847,10 @@
     <t>default_language</t>
   </si>
   <si>
-    <t>(Octobre 2021) - 3. SCH/STH - Kato Katz v6</t>
-  </si>
-  <si>
-    <t>tg_sch_sth_impact_3_kato_katz_202110_v6</t>
+    <t>(Octobre 2021) - 3. SCH/STH - Kato Katz v6.2</t>
+  </si>
+  <si>
+    <t>tg_sch_sth_impact_3_kato_katz_202110_v6_2</t>
   </si>
   <si>
     <t>French</t>
@@ -861,10 +861,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -923,6 +923,14 @@
       <charset val="1"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -931,14 +939,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -952,32 +977,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -991,11 +1000,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1014,8 +1030,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1028,33 +1045,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1068,7 +1060,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1125,13 +1125,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1143,7 +1143,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1155,55 +1197,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1221,13 +1215,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1239,49 +1269,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1293,13 +1293,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1373,6 +1373,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1399,26 +1408,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1438,159 +1432,165 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2046,12 +2046,12 @@
   <sheetPr/>
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A18" sqref="$A18:$XFD18"/>
+      <selection pane="bottomRight" activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75"/>
@@ -2307,7 +2307,7 @@
       </c>
       <c r="F8" s="36"/>
       <c r="G8" s="9"/>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="8" t="s">
         <v>37</v>
       </c>
       <c r="I8" s="25" t="s">
@@ -5910,8 +5910,8 @@
   <sheetPr/>
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" outlineLevelRow="1" outlineLevelCol="2"/>
